--- a/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
+++ b/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>$/kW</t>
   </si>
@@ -84,9 +84,6 @@
     <t>We ignore results from 2014 and 2016 (because they are influenced by tax credits, whose effects we</t>
   </si>
   <si>
-    <t>do not wish to capture), then curve fit the remaining years to get values for 2010 through 2030.</t>
-  </si>
-  <si>
     <t>Next, we need to convert the values from $/kWh to $/kW.  We use a Sandia National Laboratory report</t>
   </si>
   <si>
@@ -108,13 +105,28 @@
     <t>already can be used a large percentage of the time, so there may be limited scope for further improvements</t>
   </si>
   <si>
-    <t>in battery usage rate.</t>
-  </si>
-  <si>
     <t>AVERAGE</t>
   </si>
   <si>
     <t>Li-Ion Battery Capital Cost ($/kWh)</t>
+  </si>
+  <si>
+    <t>Battery Cost ($/MW)</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>See "cpi.xlsx" in the InputData folder for source information.</t>
+  </si>
+  <si>
+    <t>We adjust 2010 dollars to 2012 dollars using the following conversion factor:</t>
+  </si>
+  <si>
+    <t>BCpUC Battery Cost per Unit Capacity</t>
+  </si>
+  <si>
+    <t>Polynomial (2nd Order) Fit for 2018-2030 data</t>
   </si>
   <si>
     <r>
@@ -122,6 +134,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <vertAlign val="superscript"/>
         <sz val="9"/>
         <rFont val="Calibri"/>
@@ -132,6 +145,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="9"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -141,19 +155,19 @@
     </r>
   </si>
   <si>
-    <t>Battery Cost ($/MW)</t>
-  </si>
-  <si>
-    <t>Note:</t>
-  </si>
-  <si>
-    <t>See "cpi.xlsx" in the InputData folder for source information.</t>
-  </si>
-  <si>
-    <t>We adjust 2010 dollars to 2012 dollars using the following conversion factor:</t>
-  </si>
-  <si>
-    <t>BCpUC Battery Cost per Unit Capacity</t>
+    <t>do not wish to capture).then curve fit the remaining years to get values for 2010 through 2050.</t>
+  </si>
+  <si>
+    <t>We curve fit the 2018-2030 data, which nicely matches a second-order polynomial, and use this</t>
+  </si>
+  <si>
+    <t>equation to fill in data for missing years before 2030.  After 2030, the data is linear, so we</t>
+  </si>
+  <si>
+    <t>linearly interpolate to find missing values.</t>
+  </si>
+  <si>
+    <t>in maximum battery usage rate.</t>
   </si>
 </sst>
 </file>
@@ -203,19 +217,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="4"/>
@@ -234,6 +235,21 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -307,24 +323,24 @@
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -342,9 +358,6 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -352,6 +365,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Body: normal cell" xfId="5"/>
@@ -407,7 +424,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Calculations!$B$8</c:f>
+              <c:f>Calculations!$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -438,63 +455,12 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.0087489063867017E-3"/>
-                  <c:y val="0.11336468358121901"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="#,##0.0000000000" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>(Calculations!$A$13,Calculations!$A$15,Calculations!$A$17,Calculations!$A$19,Calculations!$A$21,Calculations!$A$23,Calculations!$A$25,Calculations!$A$27,Calculations!$A$29)</c:f>
+              <c:f>(Calculations!$A$16,Calculations!$A$18,Calculations!$A$20,Calculations!$A$22,Calculations!$A$24,Calculations!$A$26,Calculations!$A$28,Calculations!$A$30,Calculations!$A$32,Calculations!$A$34,Calculations!$A$36,Calculations!$A$38,Calculations!$A$40,Calculations!$A$42,Calculations!$A$44,Calculations!$A$46,Calculations!$A$48,Calculations!$A$50,Calculations!$A$52)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -521,16 +487,46 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2050</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Calculations!$B$13,Calculations!$B$15,Calculations!$B$17,Calculations!$B$19,Calculations!$B$21,Calculations!$B$23,Calculations!$B$25,Calculations!$B$27,Calculations!$B$29)</c:f>
+              <c:f>(Calculations!$B$16,Calculations!$B$18,Calculations!$B$20,Calculations!$B$22,Calculations!$B$24,Calculations!$B$26,Calculations!$B$28,Calculations!$B$30,Calculations!$B$32,Calculations!$B$34,Calculations!$B$36,Calculations!$B$38,Calculations!$B$40,Calculations!$B$42,Calculations!$B$44,Calculations!$B$46,Calculations!$B$48,Calculations!$B$50,Calculations!$B$52)</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>343.51305053569376</c:v>
                 </c:pt>
@@ -557,6 +553,36 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>137.68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>133.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130.38999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>127.93</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>125.78</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>123.76</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>121.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>119.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>117.48</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>115.51</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>113.61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -571,11 +597,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150932864"/>
-        <c:axId val="166315136"/>
+        <c:axId val="138340224"/>
+        <c:axId val="145572224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150932864"/>
+        <c:axId val="138340224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -632,12 +658,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166315136"/>
+        <c:crossAx val="145572224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="166315136"/>
+        <c:axId val="145572224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -694,7 +720,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150932864"/>
+        <c:crossAx val="138340224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1310,13 +1336,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>395286</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1608,12 +1634,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="67.140625" customWidth="1"/>
+    <col min="2" max="2" width="67.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1680,23 +1706,23 @@
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
-        <v>35</v>
+      <c r="A17" s="16" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
-        <v>37</v>
+      <c r="A18" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <v>1.0549999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
-        <v>36</v>
+      <c r="A20" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1710,14 +1736,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1742,638 +1768,1091 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>2010</v>
       </c>
-      <c r="B9" s="12">
-        <f t="shared" ref="B9:B11" si="0">0.475952381*A9^2-1937.6138095236*A9+1972141.58142839</f>
+      <c r="B12" s="12">
+        <f t="shared" ref="B12:B14" si="0">0.475952381*A12^2-1937.6138095236*A12+1972141.58142839</f>
         <v>433.0387640541885</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>2011</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>409.22947853151709</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>2012</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>386.3720977709163</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>2013</v>
       </c>
-      <c r="B12" s="12">
-        <f>0.475952381*A12^2-1937.6138095236*A12+1972141.58142839</f>
+      <c r="B15" s="12">
+        <f>0.475952381*A15^2-1937.6138095236*A15+1972141.58142839</f>
         <v>364.4666217721533</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>2014</v>
       </c>
-      <c r="B13" s="12">
-        <f t="shared" ref="B13:B28" si="1">0.475952381*A13^2-1937.6138095236*A13+1972141.58142839</f>
+      <c r="B16" s="12">
+        <f t="shared" ref="B16:B31" si="1">0.475952381*A16^2-1937.6138095236*A16+1972141.58142839</f>
         <v>343.51305053569376</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>2015</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B17" s="12">
         <f t="shared" si="1"/>
         <v>323.51138406107202</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>2016</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B18" s="12">
         <f t="shared" si="1"/>
         <v>304.46162234828807</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>2017</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B19" s="12">
         <f t="shared" si="1"/>
         <v>286.36376539757475</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>2018</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B20" s="10">
         <v>269.83</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>2019</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B21" s="12">
         <f t="shared" si="1"/>
         <v>253.02376578282565</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>2020</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B22" s="10">
         <v>236.56</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>2021</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B23" s="12">
         <f t="shared" si="1"/>
         <v>223.49138521566056</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>2022</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B24" s="10">
         <v>210.4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>2023</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B25" s="12">
         <f t="shared" si="1"/>
         <v>197.76662369631231</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>2024</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B26" s="10">
         <v>186.83</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>2025</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B27" s="12">
         <f t="shared" si="1"/>
         <v>175.84948122501373</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>2026</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B28" s="10">
         <v>166.37</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>2027</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B29" s="12">
         <f t="shared" si="1"/>
         <v>157.73995780176483</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>2028</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B30" s="10">
         <v>149.96</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>2029</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B31" s="12">
         <f t="shared" si="1"/>
         <v>143.4380534265656</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>2030</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B32" s="10">
         <v>137.68</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15">
+        <v>2031</v>
+      </c>
+      <c r="B33" s="12">
+        <f>AVERAGE(B32,B34)</f>
+        <v>135.565</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>2032</v>
+      </c>
+      <c r="B34" s="10">
+        <v>133.44999999999999</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
+        <v>2033</v>
+      </c>
+      <c r="B35" s="12">
+        <f>AVERAGE(B34,B36)</f>
+        <v>131.91999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>2034</v>
+      </c>
+      <c r="B36" s="10">
+        <v>130.38999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
+        <v>2035</v>
+      </c>
+      <c r="B37" s="12">
+        <f>AVERAGE(B36,B38)</f>
+        <v>129.16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>2036</v>
+      </c>
+      <c r="B38" s="10">
+        <v>127.93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
+        <v>2037</v>
+      </c>
+      <c r="B39" s="12">
+        <f>AVERAGE(B38,B40)</f>
+        <v>126.855</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15">
+        <v>2038</v>
+      </c>
+      <c r="B40" s="10">
+        <v>125.78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>2039</v>
+      </c>
+      <c r="B41" s="12">
+        <f>AVERAGE(B40,B42)</f>
+        <v>124.77000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15">
+        <v>2040</v>
+      </c>
+      <c r="B42" s="10">
+        <v>123.76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>2041</v>
+      </c>
+      <c r="B43" s="12">
+        <f>AVERAGE(B42,B44)</f>
+        <v>122.68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="15">
+        <v>2042</v>
+      </c>
+      <c r="B44" s="10">
+        <v>121.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>2043</v>
+      </c>
+      <c r="B45" s="12">
+        <f>AVERAGE(B44,B46)</f>
+        <v>120.55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="15">
+        <v>2044</v>
+      </c>
+      <c r="B46" s="10">
+        <v>119.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="15">
+        <v>2045</v>
+      </c>
+      <c r="B47" s="12">
+        <f>AVERAGE(B46,B48)</f>
+        <v>118.49000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>2046</v>
+      </c>
+      <c r="B48" s="10">
+        <v>117.48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="15">
+        <v>2047</v>
+      </c>
+      <c r="B49" s="12">
+        <f>AVERAGE(B48,B50)</f>
+        <v>116.495</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>2048</v>
+      </c>
+      <c r="B50" s="10">
+        <v>115.51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="15">
+        <v>2049</v>
+      </c>
+      <c r="B51" s="12">
+        <f>AVERAGE(B50,B52)</f>
+        <v>114.56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>2050</v>
+      </c>
+      <c r="B52" s="10">
+        <v>113.61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>603</v>
+      </c>
+      <c r="B60">
+        <v>2010</v>
+      </c>
+      <c r="C60" s="14">
+        <f>A60*About!$A$19</f>
+        <v>636.16499999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>779</v>
+      </c>
+      <c r="B61">
+        <v>2010</v>
+      </c>
+      <c r="C61" s="14">
+        <f>A61*About!$A$19</f>
+        <v>821.84499999999991</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>711</v>
+      </c>
+      <c r="B62">
+        <v>2010</v>
+      </c>
+      <c r="C62" s="14">
+        <f>A62*About!$A$19</f>
+        <v>750.1049999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>707</v>
+      </c>
+      <c r="B63">
+        <v>2010</v>
+      </c>
+      <c r="C63" s="14">
+        <f>A63*About!$A$19</f>
+        <v>745.88499999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>637</v>
+      </c>
+      <c r="B64">
+        <v>2010</v>
+      </c>
+      <c r="C64" s="14">
+        <f>A64*About!$A$19</f>
+        <v>672.03499999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="17">
+        <f>AVERAGE(C60:C64)</f>
+        <v>725.20699999999999</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="2"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
         <v>0</v>
       </c>
-      <c r="B37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>603</v>
-      </c>
-      <c r="B38">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="8">
         <v>2010</v>
       </c>
-      <c r="C38" s="15">
-        <f>A38*About!$A$19</f>
-        <v>636.16499999999996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>779</v>
-      </c>
-      <c r="B39">
-        <v>2010</v>
-      </c>
-      <c r="C39" s="15">
-        <f>A39*About!$A$19</f>
-        <v>821.84499999999991</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>711</v>
-      </c>
-      <c r="B40">
-        <v>2010</v>
-      </c>
-      <c r="C40" s="15">
-        <f>A40*About!$A$19</f>
-        <v>750.1049999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>707</v>
-      </c>
-      <c r="B41">
-        <v>2010</v>
-      </c>
-      <c r="C41" s="15">
-        <f>A41*About!$A$19</f>
-        <v>745.88499999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>637</v>
-      </c>
-      <c r="B42">
-        <v>2010</v>
-      </c>
-      <c r="C42" s="15">
-        <f>A42*About!$A$19</f>
-        <v>672.03499999999997</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C43" s="18">
-        <f>AVERAGE(C38:C42)</f>
+      <c r="B76" s="19">
+        <f>B12</f>
+        <v>433.0387640541885</v>
+      </c>
+      <c r="C76" s="10">
+        <f>C65</f>
         <v>725.20699999999999</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B54" s="12">
-        <f t="shared" ref="B54:B56" si="2">0.475952381*A54^2-1937.6138095236*A54+1972141.58142839</f>
-        <v>433.0387640541885</v>
-      </c>
-      <c r="C54" s="10">
-        <f>C43</f>
-        <v>725.20699999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="8">
         <v>2011</v>
       </c>
-      <c r="B55" s="12">
-        <f t="shared" si="2"/>
+      <c r="B77" s="19">
+        <f t="shared" ref="B77:B116" si="2">B13</f>
         <v>409.22947853151709</v>
       </c>
-      <c r="C55" s="11">
-        <f>B55+(C$54-B$54)</f>
+      <c r="C77" s="11">
+        <f>B77+(C$76-B$76)</f>
         <v>701.39771447732858</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="8">
         <v>2012</v>
       </c>
-      <c r="B56" s="12">
+      <c r="B78" s="19">
         <f t="shared" si="2"/>
         <v>386.3720977709163</v>
       </c>
-      <c r="C56" s="11">
-        <f t="shared" ref="C56:C74" si="3">B56+(C$54-B$54)</f>
+      <c r="C78" s="11">
+        <f t="shared" ref="C78:C116" si="3">B78+(C$76-B$76)</f>
         <v>678.54033371672779</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="8">
         <v>2013</v>
       </c>
-      <c r="B57" s="12">
-        <f>0.475952381*A57^2-1937.6138095236*A57+1972141.58142839</f>
+      <c r="B79" s="19">
+        <f t="shared" si="2"/>
         <v>364.4666217721533</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C79" s="11">
         <f t="shared" si="3"/>
         <v>656.63485771796479</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="8">
         <v>2014</v>
       </c>
-      <c r="B58" s="12">
-        <f t="shared" ref="B58:B61" si="4">0.475952381*A58^2-1937.6138095236*A58+1972141.58142839</f>
+      <c r="B80" s="19">
+        <f t="shared" si="2"/>
         <v>343.51305053569376</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C80" s="11">
         <f t="shared" si="3"/>
         <v>635.68128648150525</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="8">
         <v>2015</v>
       </c>
-      <c r="B59" s="12">
-        <f t="shared" si="4"/>
+      <c r="B81" s="19">
+        <f t="shared" si="2"/>
         <v>323.51138406107202</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C81" s="11">
         <f t="shared" si="3"/>
         <v>615.67962000688351</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="8">
         <v>2016</v>
       </c>
-      <c r="B60" s="12">
-        <f t="shared" si="4"/>
+      <c r="B82" s="19">
+        <f t="shared" si="2"/>
         <v>304.46162234828807</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C82" s="11">
         <f t="shared" si="3"/>
         <v>596.62985829409956</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="8">
         <v>2017</v>
       </c>
-      <c r="B61" s="12">
-        <f t="shared" si="4"/>
+      <c r="B83" s="19">
+        <f t="shared" si="2"/>
         <v>286.36376539757475</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C83" s="11">
         <f t="shared" si="3"/>
         <v>578.53200134338624</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="8">
         <v>2018</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B84" s="19">
+        <f t="shared" si="2"/>
         <v>269.83</v>
       </c>
-      <c r="C62" s="11">
+      <c r="C84" s="11">
         <f t="shared" si="3"/>
         <v>561.99823594581153</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="8">
         <v>2019</v>
       </c>
-      <c r="B63" s="12">
-        <f t="shared" ref="B63" si="5">0.475952381*A63^2-1937.6138095236*A63+1972141.58142839</f>
+      <c r="B85" s="19">
+        <f t="shared" si="2"/>
         <v>253.02376578282565</v>
       </c>
-      <c r="C63" s="11">
+      <c r="C85" s="11">
         <f t="shared" si="3"/>
         <v>545.19200172863714</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="8">
         <v>2020</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B86" s="19">
+        <f t="shared" si="2"/>
         <v>236.56</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C86" s="11">
         <f t="shared" si="3"/>
         <v>528.72823594581155</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="8">
         <v>2021</v>
       </c>
-      <c r="B65" s="12">
-        <f t="shared" ref="B65" si="6">0.475952381*A65^2-1937.6138095236*A65+1972141.58142839</f>
+      <c r="B87" s="19">
+        <f t="shared" si="2"/>
         <v>223.49138521566056</v>
       </c>
-      <c r="C65" s="11">
+      <c r="C87" s="11">
         <f t="shared" si="3"/>
         <v>515.65962116147205</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="8">
         <v>2022</v>
       </c>
-      <c r="B66" s="10">
+      <c r="B88" s="19">
+        <f t="shared" si="2"/>
         <v>210.4</v>
       </c>
-      <c r="C66" s="11">
+      <c r="C88" s="11">
         <f t="shared" si="3"/>
         <v>502.56823594581147</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="8">
         <v>2023</v>
       </c>
-      <c r="B67" s="12">
-        <f t="shared" ref="B67" si="7">0.475952381*A67^2-1937.6138095236*A67+1972141.58142839</f>
+      <c r="B89" s="19">
+        <f t="shared" si="2"/>
         <v>197.76662369631231</v>
       </c>
-      <c r="C67" s="11">
+      <c r="C89" s="11">
         <f t="shared" si="3"/>
         <v>489.9348596421238</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="8">
         <v>2024</v>
       </c>
-      <c r="B68" s="10">
+      <c r="B90" s="19">
+        <f t="shared" si="2"/>
         <v>186.83</v>
       </c>
-      <c r="C68" s="11">
+      <c r="C90" s="11">
         <f t="shared" si="3"/>
         <v>478.99823594581153</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="8">
         <v>2025</v>
       </c>
-      <c r="B69" s="12">
-        <f t="shared" ref="B69" si="8">0.475952381*A69^2-1937.6138095236*A69+1972141.58142839</f>
+      <c r="B91" s="19">
+        <f t="shared" si="2"/>
         <v>175.84948122501373</v>
       </c>
-      <c r="C69" s="11">
+      <c r="C91" s="11">
         <f t="shared" si="3"/>
         <v>468.01771717082522</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="8">
         <v>2026</v>
       </c>
-      <c r="B70" s="10">
+      <c r="B92" s="19">
+        <f t="shared" si="2"/>
         <v>166.37</v>
       </c>
-      <c r="C70" s="11">
+      <c r="C92" s="11">
         <f t="shared" si="3"/>
         <v>458.53823594581149</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="8">
         <v>2027</v>
       </c>
-      <c r="B71" s="12">
-        <f t="shared" ref="B71" si="9">0.475952381*A71^2-1937.6138095236*A71+1972141.58142839</f>
+      <c r="B93" s="19">
+        <f t="shared" si="2"/>
         <v>157.73995780176483</v>
       </c>
-      <c r="C71" s="11">
+      <c r="C93" s="11">
         <f t="shared" si="3"/>
         <v>449.90819374757632</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="8">
         <v>2028</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B94" s="19">
+        <f t="shared" si="2"/>
         <v>149.96</v>
       </c>
-      <c r="C72" s="11">
+      <c r="C94" s="11">
         <f t="shared" si="3"/>
         <v>442.12823594581153</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="8">
         <v>2029</v>
       </c>
-      <c r="B73" s="12">
-        <f t="shared" ref="B73" si="10">0.475952381*A73^2-1937.6138095236*A73+1972141.58142839</f>
+      <c r="B95" s="19">
+        <f t="shared" si="2"/>
         <v>143.4380534265656</v>
       </c>
-      <c r="C73" s="11">
+      <c r="C95" s="11">
         <f t="shared" si="3"/>
         <v>435.60628937237709</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="8">
         <v>2030</v>
       </c>
-      <c r="B74" s="10">
+      <c r="B96" s="19">
+        <f t="shared" si="2"/>
         <v>137.68</v>
       </c>
-      <c r="C74" s="11">
+      <c r="C96" s="11">
         <f t="shared" si="3"/>
         <v>429.8482359458115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="8">
+        <v>2031</v>
+      </c>
+      <c r="B97" s="19">
+        <f>B33</f>
+        <v>135.565</v>
+      </c>
+      <c r="C97" s="11">
+        <f t="shared" si="3"/>
+        <v>427.73323594581149</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="8">
+        <v>2032</v>
+      </c>
+      <c r="B98" s="19">
+        <f t="shared" si="2"/>
+        <v>133.44999999999999</v>
+      </c>
+      <c r="C98" s="11">
+        <f t="shared" si="3"/>
+        <v>425.61823594581148</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="8">
+        <v>2033</v>
+      </c>
+      <c r="B99" s="19">
+        <f t="shared" si="2"/>
+        <v>131.91999999999999</v>
+      </c>
+      <c r="C99" s="11">
+        <f t="shared" si="3"/>
+        <v>424.08823594581145</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="8">
+        <v>2034</v>
+      </c>
+      <c r="B100" s="19">
+        <f t="shared" si="2"/>
+        <v>130.38999999999999</v>
+      </c>
+      <c r="C100" s="11">
+        <f t="shared" si="3"/>
+        <v>422.55823594581148</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="8">
+        <v>2035</v>
+      </c>
+      <c r="B101" s="19">
+        <f t="shared" si="2"/>
+        <v>129.16</v>
+      </c>
+      <c r="C101" s="11">
+        <f t="shared" si="3"/>
+        <v>421.32823594581146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="8">
+        <v>2036</v>
+      </c>
+      <c r="B102" s="19">
+        <f t="shared" si="2"/>
+        <v>127.93</v>
+      </c>
+      <c r="C102" s="11">
+        <f t="shared" si="3"/>
+        <v>420.0982359458115</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="8">
+        <v>2037</v>
+      </c>
+      <c r="B103" s="19">
+        <f t="shared" si="2"/>
+        <v>126.855</v>
+      </c>
+      <c r="C103" s="11">
+        <f t="shared" si="3"/>
+        <v>419.02323594581151</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="8">
+        <v>2038</v>
+      </c>
+      <c r="B104" s="19">
+        <f t="shared" si="2"/>
+        <v>125.78</v>
+      </c>
+      <c r="C104" s="11">
+        <f t="shared" si="3"/>
+        <v>417.94823594581146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="8">
+        <v>2039</v>
+      </c>
+      <c r="B105" s="19">
+        <f t="shared" si="2"/>
+        <v>124.77000000000001</v>
+      </c>
+      <c r="C105" s="11">
+        <f t="shared" si="3"/>
+        <v>416.93823594581147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="8">
+        <v>2040</v>
+      </c>
+      <c r="B106" s="19">
+        <f t="shared" si="2"/>
+        <v>123.76</v>
+      </c>
+      <c r="C106" s="11">
+        <f t="shared" si="3"/>
+        <v>415.92823594581148</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="8">
+        <v>2041</v>
+      </c>
+      <c r="B107" s="19">
+        <f t="shared" si="2"/>
+        <v>122.68</v>
+      </c>
+      <c r="C107" s="11">
+        <f t="shared" si="3"/>
+        <v>414.8482359458115</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="8">
+        <v>2042</v>
+      </c>
+      <c r="B108" s="19">
+        <f t="shared" si="2"/>
+        <v>121.6</v>
+      </c>
+      <c r="C108" s="11">
+        <f t="shared" si="3"/>
+        <v>413.76823594581151</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="8">
+        <v>2043</v>
+      </c>
+      <c r="B109" s="19">
+        <f t="shared" si="2"/>
+        <v>120.55</v>
+      </c>
+      <c r="C109" s="11">
+        <f t="shared" si="3"/>
+        <v>412.7182359458115</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="8">
+        <v>2044</v>
+      </c>
+      <c r="B110" s="19">
+        <f t="shared" si="2"/>
+        <v>119.5</v>
+      </c>
+      <c r="C110" s="11">
+        <f t="shared" si="3"/>
+        <v>411.66823594581149</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="8">
+        <v>2045</v>
+      </c>
+      <c r="B111" s="19">
+        <f t="shared" si="2"/>
+        <v>118.49000000000001</v>
+      </c>
+      <c r="C111" s="11">
+        <f t="shared" si="3"/>
+        <v>410.6582359458115</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="8">
+        <v>2046</v>
+      </c>
+      <c r="B112" s="19">
+        <f t="shared" si="2"/>
+        <v>117.48</v>
+      </c>
+      <c r="C112" s="11">
+        <f t="shared" si="3"/>
+        <v>409.64823594581151</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="8">
+        <v>2047</v>
+      </c>
+      <c r="B113" s="19">
+        <f t="shared" si="2"/>
+        <v>116.495</v>
+      </c>
+      <c r="C113" s="11">
+        <f t="shared" si="3"/>
+        <v>408.66323594581149</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="8">
+        <v>2048</v>
+      </c>
+      <c r="B114" s="19">
+        <f t="shared" si="2"/>
+        <v>115.51</v>
+      </c>
+      <c r="C114" s="11">
+        <f t="shared" si="3"/>
+        <v>407.67823594581148</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="8">
+        <v>2049</v>
+      </c>
+      <c r="B115" s="19">
+        <f t="shared" si="2"/>
+        <v>114.56</v>
+      </c>
+      <c r="C115" s="11">
+        <f t="shared" si="3"/>
+        <v>406.72823594581149</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="8">
+        <v>2050</v>
+      </c>
+      <c r="B116" s="19">
+        <f t="shared" si="2"/>
+        <v>113.61</v>
+      </c>
+      <c r="C116" s="11">
+        <f t="shared" si="3"/>
+        <v>405.7782359458115</v>
       </c>
     </row>
   </sheetData>
@@ -2385,234 +2864,394 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF002060"/>
+    <tabColor rgb="FF003399"/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>34</v>
+      <c r="B1" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>Calculations!A54</f>
-        <v>2010</v>
-      </c>
-      <c r="B2">
-        <f>Calculations!C54*1000</f>
-        <v>725207</v>
+        <f>Calculations!A80</f>
+        <v>2014</v>
+      </c>
+      <c r="B2" s="9">
+        <f>Calculations!C80*1000</f>
+        <v>635681.28648150526</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>Calculations!A55</f>
-        <v>2011</v>
+        <f>Calculations!A81</f>
+        <v>2015</v>
       </c>
       <c r="B3" s="9">
-        <f>Calculations!C55*1000</f>
-        <v>701397.71447732858</v>
+        <f>Calculations!C81*1000</f>
+        <v>615679.62000688352</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>Calculations!A56</f>
-        <v>2012</v>
+        <f>Calculations!A82</f>
+        <v>2016</v>
       </c>
       <c r="B4" s="9">
-        <f>Calculations!C56*1000</f>
-        <v>678540.33371672779</v>
+        <f>Calculations!C82*1000</f>
+        <v>596629.85829409957</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>Calculations!A57</f>
-        <v>2013</v>
+        <f>Calculations!A83</f>
+        <v>2017</v>
       </c>
       <c r="B5" s="9">
-        <f>Calculations!C57*1000</f>
-        <v>656634.8577179648</v>
+        <f>Calculations!C83*1000</f>
+        <v>578532.00134338625</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>Calculations!A58</f>
-        <v>2014</v>
+        <f>Calculations!A84</f>
+        <v>2018</v>
       </c>
       <c r="B6" s="9">
-        <f>Calculations!C58*1000</f>
-        <v>635681.28648150526</v>
+        <f>Calculations!C84*1000</f>
+        <v>561998.2359458115</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>Calculations!A59</f>
-        <v>2015</v>
+        <f>Calculations!A85</f>
+        <v>2019</v>
       </c>
       <c r="B7" s="9">
-        <f>Calculations!C59*1000</f>
-        <v>615679.62000688352</v>
+        <f>Calculations!C85*1000</f>
+        <v>545192.00172863714</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>Calculations!A60</f>
-        <v>2016</v>
+        <f>Calculations!A86</f>
+        <v>2020</v>
       </c>
       <c r="B8" s="9">
-        <f>Calculations!C60*1000</f>
-        <v>596629.85829409957</v>
+        <f>Calculations!C86*1000</f>
+        <v>528728.2359458115</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>Calculations!A61</f>
-        <v>2017</v>
+        <f>Calculations!A87</f>
+        <v>2021</v>
       </c>
       <c r="B9" s="9">
-        <f>Calculations!C61*1000</f>
-        <v>578532.00134338625</v>
+        <f>Calculations!C87*1000</f>
+        <v>515659.62116147205</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>Calculations!A62</f>
-        <v>2018</v>
+        <f>Calculations!A88</f>
+        <v>2022</v>
       </c>
       <c r="B10" s="9">
-        <f>Calculations!C62*1000</f>
-        <v>561998.2359458115</v>
+        <f>Calculations!C88*1000</f>
+        <v>502568.2359458115</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>Calculations!A63</f>
-        <v>2019</v>
+        <f>Calculations!A89</f>
+        <v>2023</v>
       </c>
       <c r="B11" s="9">
-        <f>Calculations!C63*1000</f>
-        <v>545192.00172863714</v>
+        <f>Calculations!C89*1000</f>
+        <v>489934.8596421238</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>Calculations!A64</f>
-        <v>2020</v>
+        <f>Calculations!A90</f>
+        <v>2024</v>
       </c>
       <c r="B12" s="9">
-        <f>Calculations!C64*1000</f>
-        <v>528728.2359458115</v>
+        <f>Calculations!C90*1000</f>
+        <v>478998.23594581155</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>Calculations!A65</f>
-        <v>2021</v>
+        <f>Calculations!A91</f>
+        <v>2025</v>
       </c>
       <c r="B13" s="9">
-        <f>Calculations!C65*1000</f>
-        <v>515659.62116147205</v>
+        <f>Calculations!C91*1000</f>
+        <v>468017.71717082523</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f>Calculations!A66</f>
-        <v>2022</v>
+        <f>Calculations!A92</f>
+        <v>2026</v>
       </c>
       <c r="B14" s="9">
-        <f>Calculations!C66*1000</f>
-        <v>502568.2359458115</v>
+        <f>Calculations!C92*1000</f>
+        <v>458538.2359458115</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f>Calculations!A67</f>
-        <v>2023</v>
+        <f>Calculations!A93</f>
+        <v>2027</v>
       </c>
       <c r="B15" s="9">
-        <f>Calculations!C67*1000</f>
-        <v>489934.8596421238</v>
+        <f>Calculations!C93*1000</f>
+        <v>449908.19374757633</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f>Calculations!A68</f>
-        <v>2024</v>
+        <f>Calculations!A94</f>
+        <v>2028</v>
       </c>
       <c r="B16" s="9">
-        <f>Calculations!C68*1000</f>
-        <v>478998.23594581155</v>
+        <f>Calculations!C94*1000</f>
+        <v>442128.23594581155</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f>Calculations!A69</f>
-        <v>2025</v>
+        <f>Calculations!A95</f>
+        <v>2029</v>
       </c>
       <c r="B17" s="9">
-        <f>Calculations!C69*1000</f>
-        <v>468017.71717082523</v>
+        <f>Calculations!C95*1000</f>
+        <v>435606.2893723771</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f>Calculations!A70</f>
-        <v>2026</v>
+        <f>Calculations!A96</f>
+        <v>2030</v>
       </c>
       <c r="B18" s="9">
-        <f>Calculations!C70*1000</f>
-        <v>458538.2359458115</v>
+        <f>Calculations!C96*1000</f>
+        <v>429848.2359458115</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f>Calculations!A71</f>
-        <v>2027</v>
+      <c r="A19" s="15">
+        <f>Calculations!A97</f>
+        <v>2031</v>
       </c>
       <c r="B19" s="9">
-        <f>Calculations!C71*1000</f>
-        <v>449908.19374757633</v>
+        <f>Calculations!C97*1000</f>
+        <v>427733.2359458115</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f>Calculations!A72</f>
-        <v>2028</v>
+      <c r="A20" s="15">
+        <f>Calculations!A98</f>
+        <v>2032</v>
       </c>
       <c r="B20" s="9">
-        <f>Calculations!C72*1000</f>
-        <v>442128.23594581155</v>
+        <f>Calculations!C98*1000</f>
+        <v>425618.2359458115</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f>Calculations!A73</f>
-        <v>2029</v>
+      <c r="A21" s="15">
+        <f>Calculations!A99</f>
+        <v>2033</v>
       </c>
       <c r="B21" s="9">
-        <f>Calculations!C73*1000</f>
-        <v>435606.2893723771</v>
+        <f>Calculations!C99*1000</f>
+        <v>424088.23594581144</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f>Calculations!A74</f>
-        <v>2030</v>
+      <c r="A22" s="15">
+        <f>Calculations!A100</f>
+        <v>2034</v>
       </c>
       <c r="B22" s="9">
-        <f>Calculations!C74*1000</f>
-        <v>429848.2359458115</v>
+        <f>Calculations!C100*1000</f>
+        <v>422558.2359458115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <f>Calculations!A101</f>
+        <v>2035</v>
+      </c>
+      <c r="B23" s="9">
+        <f>Calculations!C101*1000</f>
+        <v>421328.23594581144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <f>Calculations!A102</f>
+        <v>2036</v>
+      </c>
+      <c r="B24" s="9">
+        <f>Calculations!C102*1000</f>
+        <v>420098.2359458115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <f>Calculations!A103</f>
+        <v>2037</v>
+      </c>
+      <c r="B25" s="9">
+        <f>Calculations!C103*1000</f>
+        <v>419023.2359458115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <f>Calculations!A104</f>
+        <v>2038</v>
+      </c>
+      <c r="B26" s="9">
+        <f>Calculations!C104*1000</f>
+        <v>417948.23594581144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <f>Calculations!A105</f>
+        <v>2039</v>
+      </c>
+      <c r="B27" s="9">
+        <f>Calculations!C105*1000</f>
+        <v>416938.2359458115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
+        <f>Calculations!A106</f>
+        <v>2040</v>
+      </c>
+      <c r="B28" s="9">
+        <f>Calculations!C106*1000</f>
+        <v>415928.2359458115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
+        <f>Calculations!A107</f>
+        <v>2041</v>
+      </c>
+      <c r="B29" s="9">
+        <f>Calculations!C107*1000</f>
+        <v>414848.2359458115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
+        <f>Calculations!A108</f>
+        <v>2042</v>
+      </c>
+      <c r="B30" s="9">
+        <f>Calculations!C108*1000</f>
+        <v>413768.2359458115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
+        <f>Calculations!A109</f>
+        <v>2043</v>
+      </c>
+      <c r="B31" s="9">
+        <f>Calculations!C109*1000</f>
+        <v>412718.2359458115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
+        <f>Calculations!A110</f>
+        <v>2044</v>
+      </c>
+      <c r="B32" s="9">
+        <f>Calculations!C110*1000</f>
+        <v>411668.2359458115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="15">
+        <f>Calculations!A111</f>
+        <v>2045</v>
+      </c>
+      <c r="B33" s="9">
+        <f>Calculations!C111*1000</f>
+        <v>410658.2359458115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
+        <f>Calculations!A112</f>
+        <v>2046</v>
+      </c>
+      <c r="B34" s="9">
+        <f>Calculations!C112*1000</f>
+        <v>409648.2359458115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
+        <f>Calculations!A113</f>
+        <v>2047</v>
+      </c>
+      <c r="B35" s="9">
+        <f>Calculations!C113*1000</f>
+        <v>408663.2359458115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="15">
+        <f>Calculations!A114</f>
+        <v>2048</v>
+      </c>
+      <c r="B36" s="9">
+        <f>Calculations!C114*1000</f>
+        <v>407678.2359458115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
+        <f>Calculations!A115</f>
+        <v>2049</v>
+      </c>
+      <c r="B37" s="9">
+        <f>Calculations!C115*1000</f>
+        <v>406728.2359458115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
+        <f>Calculations!A116</f>
+        <v>2050</v>
+      </c>
+      <c r="B38" s="9">
+        <f>Calculations!C116*1000</f>
+        <v>405778.2359458115</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
+++ b/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
@@ -1,22 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\elec\BCpUC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF11D8B-6961-42E1-8033-23B326896378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="2835" yWindow="1230" windowWidth="24765" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
-    <sheet name="Calculations" sheetId="1" r:id="rId2"/>
-    <sheet name="BCpUC" sheetId="3" r:id="rId3"/>
+    <sheet name="Battery Calculations" sheetId="1" r:id="rId2"/>
+    <sheet name="Balance of System Calculations" sheetId="5" r:id="rId3"/>
+    <sheet name="BCpUC" sheetId="3" r:id="rId4"/>
+    <sheet name="BBoSCpUC" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="94">
   <si>
     <t>$/kW</t>
   </si>
@@ -118,9 +136,6 @@
   </si>
   <si>
     <t>See "cpi.xlsx" in the InputData folder for source information.</t>
-  </si>
-  <si>
-    <t>We adjust 2010 dollars to 2012 dollars using the following conversion factor:</t>
   </si>
   <si>
     <t>BCpUC Battery Cost per Unit Capacity</t>
@@ -155,9 +170,6 @@
     </r>
   </si>
   <si>
-    <t>do not wish to capture).then curve fit the remaining years to get values for 2010 through 2050.</t>
-  </si>
-  <si>
     <t>We curve fit the 2018-2030 data, which nicely matches a second-order polynomial, and use this</t>
   </si>
   <si>
@@ -168,16 +180,179 @@
   </si>
   <si>
     <t>in maximum battery usage rate.</t>
+  </si>
+  <si>
+    <t>do not wish to capture). Then curve fit the remaining years to get values for 2010 through 2050.</t>
+  </si>
+  <si>
+    <t>Used to calculate battery storage deployment. Only the first year of this time series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input variable is used, and the remaining years are handled via endogenous </t>
+  </si>
+  <si>
+    <t>learning.</t>
+  </si>
+  <si>
+    <t>BCpUC Battery Balance of System Cost per Unit Capacity</t>
+  </si>
+  <si>
+    <t>Unit: $/MW</t>
+  </si>
+  <si>
+    <t>Balance of System</t>
+  </si>
+  <si>
+    <t>Table 3. Detailed Cost Breakdown for a 60-MW U.S. Li-ion Standalone Storage System with Durations of 0.5–4 Hours</t>
+  </si>
+  <si>
+    <t>60-MW, 4-hour Duration, 240-MWh</t>
+  </si>
+  <si>
+    <t>60-MW, 2-hour Duration, 120-MWh</t>
+  </si>
+  <si>
+    <t>60-MW, 1-hour Duration, 60-MWh</t>
+  </si>
+  <si>
+    <t>60-MW, 0.5-hour Duration, 30-MWh</t>
+  </si>
+  <si>
+    <t>Li-ion battery</t>
+  </si>
+  <si>
+    <t>Battery central inverter</t>
+  </si>
+  <si>
+    <t>Structural BOS</t>
+  </si>
+  <si>
+    <t>Electrical BOS</t>
+  </si>
+  <si>
+    <t>EPC overhead</t>
+  </si>
+  <si>
+    <t>Sales tax</t>
+  </si>
+  <si>
+    <t>∑ EPC cost</t>
+  </si>
+  <si>
+    <t>Land acquisition</t>
+  </si>
+  <si>
+    <t>Permitting fee</t>
+  </si>
+  <si>
+    <t>Interconnection fee</t>
+  </si>
+  <si>
+    <t>Contingency</t>
+  </si>
+  <si>
+    <t>Developer overhead</t>
+  </si>
+  <si>
+    <t>EPC/developer net profit</t>
+  </si>
+  <si>
+    <t>∑ Developer cost</t>
+  </si>
+  <si>
+    <t>Total Cost ($)</t>
+  </si>
+  <si>
+    <t>$/W</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Model Component</t>
+  </si>
+  <si>
+    <t>Installation labor &amp; equipment</t>
+  </si>
+  <si>
+    <t>Balance of System Costs</t>
+  </si>
+  <si>
+    <t>https://www.nrel.gov/docs/fy19osti/71714.pdf</t>
+  </si>
+  <si>
+    <t>Page 12, Table 3</t>
+  </si>
+  <si>
+    <t>National Renewable Energy Laboratory</t>
+  </si>
+  <si>
+    <t>2018 U.S. Utility-Scale Photovoltaics Plus-Energy Storage System Costs Benchmark</t>
+  </si>
+  <si>
+    <t>Only the battery cost is affected by endogenous learning.  The "Balance of System"</t>
+  </si>
+  <si>
+    <t>costs are read directly from this variable and are not modified via endogenous learning</t>
+  </si>
+  <si>
+    <t>inside the simulator.</t>
+  </si>
+  <si>
+    <t>We use the largest (4-hour duration) for our estimate.</t>
+  </si>
+  <si>
+    <t>Balance of System (excl. sales tax)</t>
+  </si>
+  <si>
+    <t>Sales tax on balance of system elements</t>
+  </si>
+  <si>
+    <t>The "balance of system" should include all costs the utility must pay to purchase and</t>
+  </si>
+  <si>
+    <t>install the battery system, apart from the batteries themselves (and apart from sales</t>
+  </si>
+  <si>
+    <t>tax on the batteries).  This includes the inverter, labor, etc.</t>
+  </si>
+  <si>
+    <t>Currency Adjustment</t>
+  </si>
+  <si>
+    <t>2010 to 2012 USD</t>
+  </si>
+  <si>
+    <t>We adjust currency using the following conversion factors:</t>
+  </si>
+  <si>
+    <t>2018 $/W</t>
+  </si>
+  <si>
+    <t>2018 $/MW</t>
+  </si>
+  <si>
+    <t>2018 to 2012 USD</t>
+  </si>
+  <si>
+    <t>2012 $/MW</t>
+  </si>
+  <si>
+    <t>For the U.S. model, we assume the balance of system costs remain constant throughout the model run.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="#,##0;#,##0"/>
+    <numFmt numFmtId="170" formatCode="###0;###0"/>
+    <numFmt numFmtId="171" formatCode="###0.00;###0.00"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,8 +429,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,8 +464,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -319,6 +521,148 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -340,7 +684,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -369,16 +713,115 @@
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="10" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Body: normal cell" xfId="5"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
-    <cellStyle name="Footnotes: top row" xfId="7"/>
-    <cellStyle name="Header: bottom row" xfId="4"/>
+    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="6"/>
-    <cellStyle name="Table title" xfId="2"/>
+    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Table title" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -391,12 +834,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -410,7 +856,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -424,7 +869,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Calculations!$B$11</c:f>
+              <c:f>'Battery Calculations'!$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -457,7 +902,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(Calculations!$A$16,Calculations!$A$18,Calculations!$A$20,Calculations!$A$22,Calculations!$A$24,Calculations!$A$26,Calculations!$A$28,Calculations!$A$30,Calculations!$A$32,Calculations!$A$34,Calculations!$A$36,Calculations!$A$38,Calculations!$A$40,Calculations!$A$42,Calculations!$A$44,Calculations!$A$46,Calculations!$A$48,Calculations!$A$50,Calculations!$A$52)</c:f>
+              <c:f>('Battery Calculations'!$A$16,'Battery Calculations'!$A$18,'Battery Calculations'!$A$20,'Battery Calculations'!$A$22,'Battery Calculations'!$A$24,'Battery Calculations'!$A$26,'Battery Calculations'!$A$28,'Battery Calculations'!$A$30,'Battery Calculations'!$A$32,'Battery Calculations'!$A$34,'Battery Calculations'!$A$36,'Battery Calculations'!$A$38,'Battery Calculations'!$A$40,'Battery Calculations'!$A$42,'Battery Calculations'!$A$44,'Battery Calculations'!$A$46,'Battery Calculations'!$A$48,'Battery Calculations'!$A$50,'Battery Calculations'!$A$52)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -523,7 +968,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Calculations!$B$16,Calculations!$B$18,Calculations!$B$20,Calculations!$B$22,Calculations!$B$24,Calculations!$B$26,Calculations!$B$28,Calculations!$B$30,Calculations!$B$32,Calculations!$B$34,Calculations!$B$36,Calculations!$B$38,Calculations!$B$40,Calculations!$B$42,Calculations!$B$44,Calculations!$B$46,Calculations!$B$48,Calculations!$B$50,Calculations!$B$52)</c:f>
+              <c:f>('Battery Calculations'!$B$16,'Battery Calculations'!$B$18,'Battery Calculations'!$B$20,'Battery Calculations'!$B$22,'Battery Calculations'!$B$24,'Battery Calculations'!$B$26,'Battery Calculations'!$B$28,'Battery Calculations'!$B$30,'Battery Calculations'!$B$32,'Battery Calculations'!$B$34,'Battery Calculations'!$B$36,'Battery Calculations'!$B$38,'Battery Calculations'!$B$40,'Battery Calculations'!$B$42,'Battery Calculations'!$B$44,'Battery Calculations'!$B$46,'Battery Calculations'!$B$48,'Battery Calculations'!$B$50,'Battery Calculations'!$B$52)</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="19"/>
@@ -588,6 +1033,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A29-436B-B23F-B2D260961CC0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -734,7 +1184,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -774,562 +1223,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1347,7 +1240,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1620,130 +1519,242 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="67.125" customWidth="1"/>
+    <col min="2" max="2" width="67.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
         <v>2014</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
         <v>2013</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
+    <row r="26" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+    </row>
+    <row r="30" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+    </row>
+    <row r="35" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+    </row>
+    <row r="39" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="15">
         <v>1.0549999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="59">
+        <v>0.9143273584567535</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B22" r:id="rId3" xr:uid="{CA93FE29-A0A0-406A-B94C-DC5006AB819F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1768,22 +1779,22 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1993,7 +2004,7 @@
         <v>135.565</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -2004,7 +2015,7 @@
         <v>133.44999999999999</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -2214,7 +2225,7 @@
         <v>2010</v>
       </c>
       <c r="C60" s="14">
-        <f>A60*About!$A$19</f>
+        <f>A60*About!$A$41</f>
         <v>636.16499999999996</v>
       </c>
     </row>
@@ -2226,7 +2237,7 @@
         <v>2010</v>
       </c>
       <c r="C61" s="14">
-        <f>A61*About!$A$19</f>
+        <f>A61*About!$A$41</f>
         <v>821.84499999999991</v>
       </c>
     </row>
@@ -2238,7 +2249,7 @@
         <v>2010</v>
       </c>
       <c r="C62" s="14">
-        <f>A62*About!$A$19</f>
+        <f>A62*About!$A$41</f>
         <v>750.1049999999999</v>
       </c>
     </row>
@@ -2250,7 +2261,7 @@
         <v>2010</v>
       </c>
       <c r="C63" s="14">
-        <f>A63*About!$A$19</f>
+        <f>A63*About!$A$41</f>
         <v>745.88499999999999</v>
       </c>
     </row>
@@ -2262,7 +2273,7 @@
         <v>2010</v>
       </c>
       <c r="C64" s="14">
-        <f>A64*About!$A$19</f>
+        <f>A64*About!$A$41</f>
         <v>672.03499999999997</v>
       </c>
     </row>
@@ -2297,7 +2308,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2862,18 +2873,809 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF003399"/>
-  </sheetPr>
-  <dimension ref="A1:B38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC34B27C-0BFA-4D35-874E-EA84BA74EBE0}">
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" style="20" customWidth="1"/>
+    <col min="2" max="13" width="11.28515625" style="20" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="23">
+        <v>50160000</v>
+      </c>
+      <c r="C4" s="26">
+        <v>209</v>
+      </c>
+      <c r="D4" s="24">
+        <v>0.84</v>
+      </c>
+      <c r="E4" s="27">
+        <v>25080000</v>
+      </c>
+      <c r="F4" s="26">
+        <v>209</v>
+      </c>
+      <c r="G4" s="24">
+        <v>0.42</v>
+      </c>
+      <c r="H4" s="27">
+        <v>12540000</v>
+      </c>
+      <c r="I4" s="26">
+        <v>209</v>
+      </c>
+      <c r="J4" s="24">
+        <v>0.21</v>
+      </c>
+      <c r="K4" s="27">
+        <v>6270000</v>
+      </c>
+      <c r="L4" s="26">
+        <v>209</v>
+      </c>
+      <c r="M4" s="24">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="23">
+        <v>4200000</v>
+      </c>
+      <c r="C5" s="26">
+        <v>18</v>
+      </c>
+      <c r="D5" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E5" s="27">
+        <v>4200000</v>
+      </c>
+      <c r="F5" s="26">
+        <v>35</v>
+      </c>
+      <c r="G5" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H5" s="27">
+        <v>4200000</v>
+      </c>
+      <c r="I5" s="26">
+        <v>70</v>
+      </c>
+      <c r="J5" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K5" s="27">
+        <v>4200000</v>
+      </c>
+      <c r="L5" s="26">
+        <v>140</v>
+      </c>
+      <c r="M5" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="23">
+        <v>3121131</v>
+      </c>
+      <c r="C6" s="26">
+        <v>13</v>
+      </c>
+      <c r="D6" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="27">
+        <v>1813452</v>
+      </c>
+      <c r="F6" s="26">
+        <v>15</v>
+      </c>
+      <c r="G6" s="24">
+        <v>0.03</v>
+      </c>
+      <c r="H6" s="27">
+        <v>1159612</v>
+      </c>
+      <c r="I6" s="26">
+        <v>19</v>
+      </c>
+      <c r="J6" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="K6" s="27">
+        <v>832692</v>
+      </c>
+      <c r="L6" s="26">
+        <v>28</v>
+      </c>
+      <c r="M6" s="24">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="23">
+        <v>8602825</v>
+      </c>
+      <c r="C7" s="26">
+        <v>36</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E7" s="27">
+        <v>6119167</v>
+      </c>
+      <c r="F7" s="26">
+        <v>51</v>
+      </c>
+      <c r="G7" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="27">
+        <v>4877337</v>
+      </c>
+      <c r="I7" s="26">
+        <v>81</v>
+      </c>
+      <c r="J7" s="24">
+        <v>0.08</v>
+      </c>
+      <c r="K7" s="27">
+        <v>4256423</v>
+      </c>
+      <c r="L7" s="26">
+        <v>142</v>
+      </c>
+      <c r="M7" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="23">
+        <v>5479149</v>
+      </c>
+      <c r="C8" s="26">
+        <v>23</v>
+      </c>
+      <c r="D8" s="24">
+        <v>0.09</v>
+      </c>
+      <c r="E8" s="27">
+        <v>4322275</v>
+      </c>
+      <c r="F8" s="26">
+        <v>36</v>
+      </c>
+      <c r="G8" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H8" s="27">
+        <v>3743838</v>
+      </c>
+      <c r="I8" s="26">
+        <v>62</v>
+      </c>
+      <c r="J8" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="K8" s="27">
+        <v>3454619</v>
+      </c>
+      <c r="L8" s="26">
+        <v>115</v>
+      </c>
+      <c r="M8" s="24">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="23">
+        <v>2775545</v>
+      </c>
+      <c r="C9" s="26">
+        <v>12</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="27">
+        <v>1948565</v>
+      </c>
+      <c r="F9" s="26">
+        <v>16</v>
+      </c>
+      <c r="G9" s="24">
+        <v>0.03</v>
+      </c>
+      <c r="H9" s="27">
+        <v>1535075</v>
+      </c>
+      <c r="I9" s="26">
+        <v>26</v>
+      </c>
+      <c r="J9" s="24">
+        <v>0.03</v>
+      </c>
+      <c r="K9" s="27">
+        <v>1328330</v>
+      </c>
+      <c r="L9" s="26">
+        <v>44</v>
+      </c>
+      <c r="M9" s="24">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="23">
+        <v>5293460</v>
+      </c>
+      <c r="C10" s="26">
+        <v>22</v>
+      </c>
+      <c r="D10" s="24">
+        <v>0.09</v>
+      </c>
+      <c r="E10" s="27">
+        <v>3083292</v>
+      </c>
+      <c r="F10" s="26">
+        <v>26</v>
+      </c>
+      <c r="G10" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="H10" s="27">
+        <v>1978209</v>
+      </c>
+      <c r="I10" s="26">
+        <v>33</v>
+      </c>
+      <c r="J10" s="24">
+        <v>0.03</v>
+      </c>
+      <c r="K10" s="27">
+        <v>1425667</v>
+      </c>
+      <c r="L10" s="26">
+        <v>48</v>
+      </c>
+      <c r="M10" s="24">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="43">
+        <v>79632110</v>
+      </c>
+      <c r="C11" s="44">
+        <v>332</v>
+      </c>
+      <c r="D11" s="45">
+        <v>1.33</v>
+      </c>
+      <c r="E11" s="46">
+        <v>46566751</v>
+      </c>
+      <c r="F11" s="44">
+        <v>388</v>
+      </c>
+      <c r="G11" s="45">
+        <v>0.78</v>
+      </c>
+      <c r="H11" s="46">
+        <v>30034071</v>
+      </c>
+      <c r="I11" s="44">
+        <v>501</v>
+      </c>
+      <c r="J11" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="46">
+        <v>21767732</v>
+      </c>
+      <c r="L11" s="44">
+        <v>726</v>
+      </c>
+      <c r="M11" s="45">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="21">
+        <v>250000</v>
+      </c>
+      <c r="C12" s="22">
+        <v>1</v>
+      </c>
+      <c r="D12" s="25">
+        <v>0</v>
+      </c>
+      <c r="E12" s="28">
+        <v>250000</v>
+      </c>
+      <c r="F12" s="22">
+        <v>2</v>
+      </c>
+      <c r="G12" s="25">
+        <v>0</v>
+      </c>
+      <c r="H12" s="28">
+        <v>250000</v>
+      </c>
+      <c r="I12" s="22">
+        <v>4</v>
+      </c>
+      <c r="J12" s="25">
+        <v>0</v>
+      </c>
+      <c r="K12" s="28">
+        <v>250000</v>
+      </c>
+      <c r="L12" s="22">
+        <v>8</v>
+      </c>
+      <c r="M12" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="23">
+        <v>295289</v>
+      </c>
+      <c r="C13" s="26">
+        <v>1</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0</v>
+      </c>
+      <c r="E13" s="27">
+        <v>295289</v>
+      </c>
+      <c r="F13" s="26">
+        <v>2</v>
+      </c>
+      <c r="G13" s="24">
+        <v>0</v>
+      </c>
+      <c r="H13" s="27">
+        <v>295289</v>
+      </c>
+      <c r="I13" s="26">
+        <v>5</v>
+      </c>
+      <c r="J13" s="24">
+        <v>0</v>
+      </c>
+      <c r="K13" s="27">
+        <v>295289</v>
+      </c>
+      <c r="L13" s="26">
+        <v>10</v>
+      </c>
+      <c r="M13" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="23">
+        <v>1802363</v>
+      </c>
+      <c r="C14" s="26">
+        <v>8</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0.03</v>
+      </c>
+      <c r="E14" s="27">
+        <v>1802363</v>
+      </c>
+      <c r="F14" s="26">
+        <v>15</v>
+      </c>
+      <c r="G14" s="24">
+        <v>0.03</v>
+      </c>
+      <c r="H14" s="27">
+        <v>1802363</v>
+      </c>
+      <c r="I14" s="26">
+        <v>30</v>
+      </c>
+      <c r="J14" s="24">
+        <v>0.03</v>
+      </c>
+      <c r="K14" s="27">
+        <v>1802363</v>
+      </c>
+      <c r="L14" s="26">
+        <v>60</v>
+      </c>
+      <c r="M14" s="24">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="23">
+        <v>2477135</v>
+      </c>
+      <c r="C15" s="26">
+        <v>10</v>
+      </c>
+      <c r="D15" s="24">
+        <v>0.04</v>
+      </c>
+      <c r="E15" s="27">
+        <v>1476303</v>
+      </c>
+      <c r="F15" s="26">
+        <v>12</v>
+      </c>
+      <c r="G15" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="H15" s="27">
+        <v>975887</v>
+      </c>
+      <c r="I15" s="26">
+        <v>16</v>
+      </c>
+      <c r="J15" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="K15" s="27">
+        <v>725679</v>
+      </c>
+      <c r="L15" s="26">
+        <v>24</v>
+      </c>
+      <c r="M15" s="24">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="23">
+        <v>2477135</v>
+      </c>
+      <c r="C16" s="26">
+        <v>10</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0.04</v>
+      </c>
+      <c r="E16" s="27">
+        <v>1476303</v>
+      </c>
+      <c r="F16" s="26">
+        <v>12</v>
+      </c>
+      <c r="G16" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="H16" s="27">
+        <v>975887</v>
+      </c>
+      <c r="I16" s="26">
+        <v>16</v>
+      </c>
+      <c r="J16" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="K16" s="27">
+        <v>725679</v>
+      </c>
+      <c r="L16" s="26">
+        <v>24</v>
+      </c>
+      <c r="M16" s="24">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="23">
+        <v>4346702</v>
+      </c>
+      <c r="C17" s="26">
+        <v>18</v>
+      </c>
+      <c r="D17" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E17" s="27">
+        <v>2593350</v>
+      </c>
+      <c r="F17" s="26">
+        <v>22</v>
+      </c>
+      <c r="G17" s="24">
+        <v>0.04</v>
+      </c>
+      <c r="H17" s="27">
+        <v>1716675</v>
+      </c>
+      <c r="I17" s="26">
+        <v>29</v>
+      </c>
+      <c r="J17" s="24">
+        <v>0.03</v>
+      </c>
+      <c r="K17" s="27">
+        <v>1278337</v>
+      </c>
+      <c r="L17" s="26">
+        <v>43</v>
+      </c>
+      <c r="M17" s="24">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="48">
+        <v>11648623</v>
+      </c>
+      <c r="C18" s="49">
+        <v>49</v>
+      </c>
+      <c r="D18" s="50">
+        <v>0.19</v>
+      </c>
+      <c r="E18" s="51">
+        <v>7893608</v>
+      </c>
+      <c r="F18" s="49">
+        <v>66</v>
+      </c>
+      <c r="G18" s="50">
+        <v>0.13</v>
+      </c>
+      <c r="H18" s="51">
+        <v>6016101</v>
+      </c>
+      <c r="I18" s="49">
+        <v>100</v>
+      </c>
+      <c r="J18" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="K18" s="51">
+        <v>5077347</v>
+      </c>
+      <c r="L18" s="49">
+        <v>169</v>
+      </c>
+      <c r="M18" s="50">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="55">
+        <f>SUM(D5:D9,D12:D17)</f>
+        <v>0.57999999999999985</v>
+      </c>
+      <c r="E22" s="58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="57">
+        <f>D10*SUM(D5:D7)/SUM(D4:D7)</f>
+        <v>2.1272727272727273E-2</v>
+      </c>
+      <c r="E23" s="58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="55">
+        <f>SUM(D22:D23)</f>
+        <v>0.60127272727272707</v>
+      </c>
+      <c r="E24" s="58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="60">
+        <f>D24*10^6</f>
+        <v>601272.72727272706</v>
+      </c>
+      <c r="E25" s="58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="60">
+        <f>D25*About!A42</f>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="E26" s="58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF003399"/>
+  </sheetPr>
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2886,372 +3688,592 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>Calculations!A80</f>
-        <v>2014</v>
+        <f>'Battery Calculations'!A84</f>
+        <v>2018</v>
       </c>
       <c r="B2" s="9">
-        <f>Calculations!C80*1000</f>
-        <v>635681.28648150526</v>
+        <f>'Battery Calculations'!C84*1000</f>
+        <v>561998.2359458115</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>Calculations!A81</f>
-        <v>2015</v>
+        <f>'Battery Calculations'!A85</f>
+        <v>2019</v>
       </c>
       <c r="B3" s="9">
-        <f>Calculations!C81*1000</f>
-        <v>615679.62000688352</v>
+        <f>'Battery Calculations'!C85*1000</f>
+        <v>545192.00172863714</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>Calculations!A82</f>
-        <v>2016</v>
+        <f>'Battery Calculations'!A86</f>
+        <v>2020</v>
       </c>
       <c r="B4" s="9">
-        <f>Calculations!C82*1000</f>
-        <v>596629.85829409957</v>
+        <f>'Battery Calculations'!C86*1000</f>
+        <v>528728.2359458115</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>Calculations!A83</f>
-        <v>2017</v>
+        <f>'Battery Calculations'!A87</f>
+        <v>2021</v>
       </c>
       <c r="B5" s="9">
-        <f>Calculations!C83*1000</f>
-        <v>578532.00134338625</v>
+        <f>'Battery Calculations'!C87*1000</f>
+        <v>515659.62116147205</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>Calculations!A84</f>
-        <v>2018</v>
+        <f>'Battery Calculations'!A88</f>
+        <v>2022</v>
       </c>
       <c r="B6" s="9">
-        <f>Calculations!C84*1000</f>
-        <v>561998.2359458115</v>
+        <f>'Battery Calculations'!C88*1000</f>
+        <v>502568.2359458115</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>Calculations!A85</f>
-        <v>2019</v>
+        <f>'Battery Calculations'!A89</f>
+        <v>2023</v>
       </c>
       <c r="B7" s="9">
-        <f>Calculations!C85*1000</f>
-        <v>545192.00172863714</v>
+        <f>'Battery Calculations'!C89*1000</f>
+        <v>489934.8596421238</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>Calculations!A86</f>
-        <v>2020</v>
+        <f>'Battery Calculations'!A90</f>
+        <v>2024</v>
       </c>
       <c r="B8" s="9">
-        <f>Calculations!C86*1000</f>
-        <v>528728.2359458115</v>
+        <f>'Battery Calculations'!C90*1000</f>
+        <v>478998.23594581155</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>Calculations!A87</f>
-        <v>2021</v>
+        <f>'Battery Calculations'!A91</f>
+        <v>2025</v>
       </c>
       <c r="B9" s="9">
-        <f>Calculations!C87*1000</f>
-        <v>515659.62116147205</v>
+        <f>'Battery Calculations'!C91*1000</f>
+        <v>468017.71717082523</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>Calculations!A88</f>
-        <v>2022</v>
+        <f>'Battery Calculations'!A92</f>
+        <v>2026</v>
       </c>
       <c r="B10" s="9">
-        <f>Calculations!C88*1000</f>
-        <v>502568.2359458115</v>
+        <f>'Battery Calculations'!C92*1000</f>
+        <v>458538.2359458115</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>Calculations!A89</f>
-        <v>2023</v>
+        <f>'Battery Calculations'!A93</f>
+        <v>2027</v>
       </c>
       <c r="B11" s="9">
-        <f>Calculations!C89*1000</f>
-        <v>489934.8596421238</v>
+        <f>'Battery Calculations'!C93*1000</f>
+        <v>449908.19374757633</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>Calculations!A90</f>
-        <v>2024</v>
+        <f>'Battery Calculations'!A94</f>
+        <v>2028</v>
       </c>
       <c r="B12" s="9">
-        <f>Calculations!C90*1000</f>
-        <v>478998.23594581155</v>
+        <f>'Battery Calculations'!C94*1000</f>
+        <v>442128.23594581155</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>Calculations!A91</f>
-        <v>2025</v>
+        <f>'Battery Calculations'!A95</f>
+        <v>2029</v>
       </c>
       <c r="B13" s="9">
-        <f>Calculations!C91*1000</f>
-        <v>468017.71717082523</v>
+        <f>'Battery Calculations'!C95*1000</f>
+        <v>435606.2893723771</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f>Calculations!A92</f>
-        <v>2026</v>
+        <f>'Battery Calculations'!A96</f>
+        <v>2030</v>
       </c>
       <c r="B14" s="9">
-        <f>Calculations!C92*1000</f>
-        <v>458538.2359458115</v>
+        <f>'Battery Calculations'!C96*1000</f>
+        <v>429848.2359458115</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f>Calculations!A93</f>
-        <v>2027</v>
+      <c r="A15" s="15">
+        <f>'Battery Calculations'!A97</f>
+        <v>2031</v>
       </c>
       <c r="B15" s="9">
-        <f>Calculations!C93*1000</f>
-        <v>449908.19374757633</v>
+        <f>'Battery Calculations'!C97*1000</f>
+        <v>427733.2359458115</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f>Calculations!A94</f>
-        <v>2028</v>
+      <c r="A16" s="15">
+        <f>'Battery Calculations'!A98</f>
+        <v>2032</v>
       </c>
       <c r="B16" s="9">
-        <f>Calculations!C94*1000</f>
-        <v>442128.23594581155</v>
+        <f>'Battery Calculations'!C98*1000</f>
+        <v>425618.2359458115</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f>Calculations!A95</f>
-        <v>2029</v>
+      <c r="A17" s="15">
+        <f>'Battery Calculations'!A99</f>
+        <v>2033</v>
       </c>
       <c r="B17" s="9">
-        <f>Calculations!C95*1000</f>
-        <v>435606.2893723771</v>
+        <f>'Battery Calculations'!C99*1000</f>
+        <v>424088.23594581144</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f>Calculations!A96</f>
-        <v>2030</v>
+      <c r="A18" s="15">
+        <f>'Battery Calculations'!A100</f>
+        <v>2034</v>
       </c>
       <c r="B18" s="9">
-        <f>Calculations!C96*1000</f>
-        <v>429848.2359458115</v>
+        <f>'Battery Calculations'!C100*1000</f>
+        <v>422558.2359458115</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
-        <f>Calculations!A97</f>
-        <v>2031</v>
+        <f>'Battery Calculations'!A101</f>
+        <v>2035</v>
       </c>
       <c r="B19" s="9">
-        <f>Calculations!C97*1000</f>
-        <v>427733.2359458115</v>
+        <f>'Battery Calculations'!C101*1000</f>
+        <v>421328.23594581144</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
-        <f>Calculations!A98</f>
-        <v>2032</v>
+        <f>'Battery Calculations'!A102</f>
+        <v>2036</v>
       </c>
       <c r="B20" s="9">
-        <f>Calculations!C98*1000</f>
-        <v>425618.2359458115</v>
+        <f>'Battery Calculations'!C102*1000</f>
+        <v>420098.2359458115</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
-        <f>Calculations!A99</f>
-        <v>2033</v>
+        <f>'Battery Calculations'!A103</f>
+        <v>2037</v>
       </c>
       <c r="B21" s="9">
-        <f>Calculations!C99*1000</f>
-        <v>424088.23594581144</v>
+        <f>'Battery Calculations'!C103*1000</f>
+        <v>419023.2359458115</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
-        <f>Calculations!A100</f>
-        <v>2034</v>
+        <f>'Battery Calculations'!A104</f>
+        <v>2038</v>
       </c>
       <c r="B22" s="9">
-        <f>Calculations!C100*1000</f>
-        <v>422558.2359458115</v>
+        <f>'Battery Calculations'!C104*1000</f>
+        <v>417948.23594581144</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
-        <f>Calculations!A101</f>
-        <v>2035</v>
+        <f>'Battery Calculations'!A105</f>
+        <v>2039</v>
       </c>
       <c r="B23" s="9">
-        <f>Calculations!C101*1000</f>
-        <v>421328.23594581144</v>
+        <f>'Battery Calculations'!C105*1000</f>
+        <v>416938.2359458115</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
-        <f>Calculations!A102</f>
-        <v>2036</v>
+        <f>'Battery Calculations'!A106</f>
+        <v>2040</v>
       </c>
       <c r="B24" s="9">
-        <f>Calculations!C102*1000</f>
-        <v>420098.2359458115</v>
+        <f>'Battery Calculations'!C106*1000</f>
+        <v>415928.2359458115</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
-        <f>Calculations!A103</f>
-        <v>2037</v>
+        <f>'Battery Calculations'!A107</f>
+        <v>2041</v>
       </c>
       <c r="B25" s="9">
-        <f>Calculations!C103*1000</f>
-        <v>419023.2359458115</v>
+        <f>'Battery Calculations'!C107*1000</f>
+        <v>414848.2359458115</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
-        <f>Calculations!A104</f>
-        <v>2038</v>
+        <f>'Battery Calculations'!A108</f>
+        <v>2042</v>
       </c>
       <c r="B26" s="9">
-        <f>Calculations!C104*1000</f>
-        <v>417948.23594581144</v>
+        <f>'Battery Calculations'!C108*1000</f>
+        <v>413768.2359458115</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
-        <f>Calculations!A105</f>
-        <v>2039</v>
+        <f>'Battery Calculations'!A109</f>
+        <v>2043</v>
       </c>
       <c r="B27" s="9">
-        <f>Calculations!C105*1000</f>
-        <v>416938.2359458115</v>
+        <f>'Battery Calculations'!C109*1000</f>
+        <v>412718.2359458115</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
-        <f>Calculations!A106</f>
-        <v>2040</v>
+        <f>'Battery Calculations'!A110</f>
+        <v>2044</v>
       </c>
       <c r="B28" s="9">
-        <f>Calculations!C106*1000</f>
-        <v>415928.2359458115</v>
+        <f>'Battery Calculations'!C110*1000</f>
+        <v>411668.2359458115</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
-        <f>Calculations!A107</f>
-        <v>2041</v>
+        <f>'Battery Calculations'!A111</f>
+        <v>2045</v>
       </c>
       <c r="B29" s="9">
-        <f>Calculations!C107*1000</f>
-        <v>414848.2359458115</v>
+        <f>'Battery Calculations'!C111*1000</f>
+        <v>410658.2359458115</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
-        <f>Calculations!A108</f>
-        <v>2042</v>
+        <f>'Battery Calculations'!A112</f>
+        <v>2046</v>
       </c>
       <c r="B30" s="9">
-        <f>Calculations!C108*1000</f>
-        <v>413768.2359458115</v>
+        <f>'Battery Calculations'!C112*1000</f>
+        <v>409648.2359458115</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
-        <f>Calculations!A109</f>
-        <v>2043</v>
+        <f>'Battery Calculations'!A113</f>
+        <v>2047</v>
       </c>
       <c r="B31" s="9">
-        <f>Calculations!C109*1000</f>
-        <v>412718.2359458115</v>
+        <f>'Battery Calculations'!C113*1000</f>
+        <v>408663.2359458115</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
-        <f>Calculations!A110</f>
-        <v>2044</v>
+        <f>'Battery Calculations'!A114</f>
+        <v>2048</v>
       </c>
       <c r="B32" s="9">
-        <f>Calculations!C110*1000</f>
-        <v>411668.2359458115</v>
+        <f>'Battery Calculations'!C114*1000</f>
+        <v>407678.2359458115</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
-        <f>Calculations!A111</f>
-        <v>2045</v>
+        <f>'Battery Calculations'!A115</f>
+        <v>2049</v>
       </c>
       <c r="B33" s="9">
-        <f>Calculations!C111*1000</f>
-        <v>410658.2359458115</v>
+        <f>'Battery Calculations'!C115*1000</f>
+        <v>406728.2359458115</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
-        <f>Calculations!A112</f>
+        <f>'Battery Calculations'!A116</f>
+        <v>2050</v>
+      </c>
+      <c r="B34" s="9">
+        <f>'Battery Calculations'!C116*1000</f>
+        <v>405778.2359458115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2600C7A-0160-47B2-B089-93F8CBD71882}">
+  <sheetPr>
+    <tabColor rgb="FF003399"/>
+  </sheetPr>
+  <dimension ref="A1:AH2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1">
+        <v>2018</v>
+      </c>
+      <c r="C1">
+        <v>2019</v>
+      </c>
+      <c r="D1" s="15">
+        <v>2020</v>
+      </c>
+      <c r="E1" s="15">
+        <v>2021</v>
+      </c>
+      <c r="F1" s="15">
+        <v>2022</v>
+      </c>
+      <c r="G1" s="15">
+        <v>2023</v>
+      </c>
+      <c r="H1" s="15">
+        <v>2024</v>
+      </c>
+      <c r="I1" s="15">
+        <v>2025</v>
+      </c>
+      <c r="J1" s="15">
+        <v>2026</v>
+      </c>
+      <c r="K1" s="15">
+        <v>2027</v>
+      </c>
+      <c r="L1" s="15">
+        <v>2028</v>
+      </c>
+      <c r="M1" s="15">
+        <v>2029</v>
+      </c>
+      <c r="N1" s="15">
+        <v>2030</v>
+      </c>
+      <c r="O1" s="15">
+        <v>2031</v>
+      </c>
+      <c r="P1" s="15">
+        <v>2032</v>
+      </c>
+      <c r="Q1" s="15">
+        <v>2033</v>
+      </c>
+      <c r="R1" s="15">
+        <v>2034</v>
+      </c>
+      <c r="S1" s="15">
+        <v>2035</v>
+      </c>
+      <c r="T1" s="15">
+        <v>2036</v>
+      </c>
+      <c r="U1" s="15">
+        <v>2037</v>
+      </c>
+      <c r="V1" s="15">
+        <v>2038</v>
+      </c>
+      <c r="W1" s="15">
+        <v>2039</v>
+      </c>
+      <c r="X1" s="15">
+        <v>2040</v>
+      </c>
+      <c r="Y1" s="15">
+        <v>2041</v>
+      </c>
+      <c r="Z1" s="15">
+        <v>2042</v>
+      </c>
+      <c r="AA1" s="15">
+        <v>2043</v>
+      </c>
+      <c r="AB1" s="15">
+        <v>2044</v>
+      </c>
+      <c r="AC1" s="15">
+        <v>2045</v>
+      </c>
+      <c r="AD1" s="15">
         <v>2046</v>
       </c>
-      <c r="B34" s="9">
-        <f>Calculations!C112*1000</f>
-        <v>409648.2359458115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="15">
-        <f>Calculations!A113</f>
+      <c r="AE1" s="15">
         <v>2047</v>
       </c>
-      <c r="B35" s="9">
-        <f>Calculations!C113*1000</f>
-        <v>408663.2359458115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="15">
-        <f>Calculations!A114</f>
+      <c r="AF1" s="15">
         <v>2048</v>
       </c>
-      <c r="B36" s="9">
-        <f>Calculations!C114*1000</f>
-        <v>407678.2359458115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="15">
-        <f>Calculations!A115</f>
+      <c r="AG1" s="15">
         <v>2049</v>
       </c>
-      <c r="B37" s="9">
-        <f>Calculations!C115*1000</f>
-        <v>406728.2359458115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="15">
-        <f>Calculations!A116</f>
+      <c r="AH1" s="15">
         <v>2050</v>
       </c>
-      <c r="B38" s="9">
-        <f>Calculations!C116*1000</f>
-        <v>405778.2359458115</v>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="9">
+        <f>'Balance of System Calculations'!D26</f>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="C2" s="9">
+        <f>$B2</f>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="D2" s="9">
+        <f t="shared" ref="D2:AH2" si="0">$B2</f>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="E2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="F2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="G2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="H2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="I2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="J2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="K2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="L2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="M2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="N2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="O2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="P2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="Q2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="R2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="S2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="T2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="U2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="V2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="W2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="X2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="Y2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="Z2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="AA2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="AB2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="AC2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="AD2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="AE2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="AF2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="AG2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="AH2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
+++ b/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\BCpUC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Mexico\eps-mexico\InputData\elec\BCpUC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C6F2EA-4A60-4C7E-ADE8-36917C57C687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FB32BC-7C2C-4D6E-8005-A7950567DD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -634,7 +634,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -642,51 +642,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -719,27 +715,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2325,26 +2310,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="67.1796875" customWidth="1"/>
+    <col min="2" max="2" width="67.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2352,215 +2337,204 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>2014</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>2013</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="8" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>2021</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="8" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="8" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="8" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="8" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="8" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="5"/>
-    </row>
-    <row r="37" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="9" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="5"/>
-    </row>
-    <row r="42" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="5"/>
-    </row>
-    <row r="46" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="9" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="8" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="8">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>1.0549999999999999</v>
       </c>
       <c r="B48" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="43">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="38">
         <v>0.9143273584567535</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="8" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2582,17 +2556,17 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="33.36328125" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:37" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="2:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:37" x14ac:dyDescent="0.25">
       <c r="F2">
         <v>2019</v>
       </c>
@@ -2690,7 +2664,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>70</v>
       </c>
@@ -2797,7 +2771,7 @@
         <v>205.4624</v>
       </c>
     </row>
-    <row r="4" spans="2:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:37" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>73</v>
       </c>
@@ -2898,7 +2872,7 @@
         <v>384.774771419959</v>
       </c>
     </row>
-    <row r="5" spans="2:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:37" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>74</v>
       </c>
@@ -2999,7 +2973,7 @@
         <v>594.1617</v>
       </c>
     </row>
-    <row r="6" spans="2:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:37" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>75</v>
       </c>
@@ -3100,7 +3074,7 @@
         <v>345.73</v>
       </c>
     </row>
-    <row r="7" spans="2:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:37" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>76</v>
       </c>
@@ -3201,7 +3175,7 @@
         <v>588.07036627634386</v>
       </c>
     </row>
-    <row r="8" spans="2:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:37" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>77</v>
       </c>
@@ -3302,7 +3276,7 @@
         <v>980.8854</v>
       </c>
     </row>
-    <row r="9" spans="2:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:37" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>78</v>
       </c>
@@ -3403,7 +3377,7 @@
         <v>485.99760000000003</v>
       </c>
     </row>
-    <row r="10" spans="2:37" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:37" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>79</v>
       </c>
@@ -3504,7 +3478,7 @@
         <v>791.36596113272867</v>
       </c>
     </row>
-    <row r="11" spans="2:37" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:37" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>80</v>
       </c>
@@ -3605,7 +3579,7 @@
         <v>1367.6091000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:37" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:37" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>81</v>
       </c>
@@ -3706,7 +3680,7 @@
         <v>626.26520000000005</v>
       </c>
     </row>
-    <row r="13" spans="2:37" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:37" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>82</v>
       </c>
@@ -3807,7 +3781,7 @@
         <v>994.66155598911359</v>
       </c>
     </row>
-    <row r="14" spans="2:37" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:37" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>83</v>
       </c>
@@ -3908,7 +3882,7 @@
         <v>1754.3328000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:37" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:37" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>84</v>
       </c>
@@ -4009,7 +3983,7 @@
         <v>766.53280000000007</v>
       </c>
     </row>
-    <row r="16" spans="2:37" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:37" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>85</v>
       </c>
@@ -4110,7 +4084,7 @@
         <v>1197.9571508454985</v>
       </c>
     </row>
-    <row r="17" spans="5:37" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:37" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>86</v>
       </c>
@@ -4224,776 +4198,775 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.54296875" style="10" customWidth="1"/>
-    <col min="2" max="13" width="11.26953125" style="10" customWidth="1"/>
-    <col min="14" max="16384" width="9.1796875" style="10"/>
+    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="2" max="13" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="46" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="49" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="9">
         <v>50160000</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="12">
         <v>209</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="10">
         <v>0.84</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="13">
         <v>25080000</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="12">
         <v>209</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="10">
         <v>0.42</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="13">
         <v>12540000</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="12">
         <v>209</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="10">
         <v>0.21</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="13">
         <v>6270000</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="12">
         <v>209</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="10">
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="9">
         <v>4200000</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="12">
         <v>18</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="13">
         <v>4200000</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="12">
         <v>35</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="13">
         <v>4200000</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="12">
         <v>70</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="13">
         <v>4200000</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="12">
         <v>140</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="9">
         <v>3121131</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="12">
         <v>13</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="10">
         <v>0.05</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="13">
         <v>1813452</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="12">
         <v>15</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="10">
         <v>0.03</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="13">
         <v>1159612</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="12">
         <v>19</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="10">
         <v>0.02</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="13">
         <v>832692</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="12">
         <v>28</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="10">
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="9">
         <v>8602825</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="12">
         <v>36</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="13">
         <v>6119167</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="12">
         <v>51</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="10">
         <v>0.1</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="13">
         <v>4877337</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="12">
         <v>81</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="10">
         <v>0.08</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="13">
         <v>4256423</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="12">
         <v>142</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="9">
         <v>5479149</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="12">
         <v>23</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="10">
         <v>0.09</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="13">
         <v>4322275</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="12">
         <v>36</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="13">
         <v>3743838</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="12">
         <v>62</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="10">
         <v>0.06</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="13">
         <v>3454619</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="12">
         <v>115</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="10">
         <v>0.06</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="9">
         <v>2775545</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="12">
         <v>12</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="10">
         <v>0.05</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="13">
         <v>1948565</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="12">
         <v>16</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="10">
         <v>0.03</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="13">
         <v>1535075</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="12">
         <v>26</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="10">
         <v>0.03</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="13">
         <v>1328330</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="12">
         <v>44</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="10">
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="9">
         <v>5293460</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="12">
         <v>22</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="10">
         <v>0.09</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="13">
         <v>3083292</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="12">
         <v>26</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="10">
         <v>0.05</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="13">
         <v>1978209</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="12">
         <v>33</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="10">
         <v>0.03</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="13">
         <v>1425667</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="12">
         <v>48</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="10">
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="26" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="23">
         <v>79632110</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="24">
         <v>332</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="25">
         <v>1.33</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="26">
         <v>46566751</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="24">
         <v>388</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="25">
         <v>0.78</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="26">
         <v>30034071</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="24">
         <v>501</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="25">
         <v>0.5</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="26">
         <v>21767732</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="24">
         <v>726</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="25">
         <v>0.36</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="7">
         <v>250000</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="8">
         <v>1</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="11">
         <v>0</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="14">
         <v>250000</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="8">
         <v>2</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="11">
         <v>0</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="14">
         <v>250000</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="8">
         <v>4</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="11">
         <v>0</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="14">
         <v>250000</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="8">
         <v>8</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="9">
         <v>295289</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="12">
         <v>1</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="10">
         <v>0</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="13">
         <v>295289</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="12">
         <v>2</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="10">
         <v>0</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="13">
         <v>295289</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="12">
         <v>5</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="10">
         <v>0</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="13">
         <v>295289</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="12">
         <v>10</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="9">
         <v>1802363</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="12">
         <v>8</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="10">
         <v>0.03</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="13">
         <v>1802363</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="12">
         <v>15</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="10">
         <v>0.03</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="13">
         <v>1802363</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="12">
         <v>30</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="10">
         <v>0.03</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="13">
         <v>1802363</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="12">
         <v>60</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="10">
         <v>0.03</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="9">
         <v>2477135</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="12">
         <v>10</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="10">
         <v>0.04</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="13">
         <v>1476303</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="12">
         <v>12</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="10">
         <v>0.02</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="13">
         <v>975887</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="12">
         <v>16</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="10">
         <v>0.02</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="13">
         <v>725679</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L15" s="12">
         <v>24</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15" s="10">
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="9">
         <v>2477135</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="12">
         <v>10</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="10">
         <v>0.04</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="13">
         <v>1476303</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="12">
         <v>12</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="10">
         <v>0.02</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="13">
         <v>975887</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="12">
         <v>16</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="10">
         <v>0.02</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="13">
         <v>725679</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="12">
         <v>24</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M16" s="10">
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="20" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="9">
         <v>4346702</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="12">
         <v>18</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="13">
         <v>2593350</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="12">
         <v>22</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="10">
         <v>0.04</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="13">
         <v>1716675</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="12">
         <v>29</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="10">
         <v>0.03</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="13">
         <v>1278337</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="12">
         <v>43</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="10">
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="31" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="28">
         <v>11648623</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="29">
         <v>49</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="30">
         <v>0.19</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="31">
         <v>7893608</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="29">
         <v>66</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G18" s="30">
         <v>0.13</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H18" s="31">
         <v>6016101</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="29">
         <v>100</v>
       </c>
-      <c r="J18" s="34">
+      <c r="J18" s="30">
         <v>0.1</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K18" s="31">
         <v>5077347</v>
       </c>
-      <c r="L18" s="33">
+      <c r="L18" s="29">
         <v>169</v>
       </c>
-      <c r="M18" s="34">
+      <c r="M18" s="30">
         <v>0.08</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="38" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D22" s="35">
         <f>SUM(D5:D9,D12:D17)</f>
         <v>0.57999999999999985</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E22" s="37" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="40" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="41">
+      <c r="D23" s="36">
         <f>D10*SUM(D5:D7)/SUM(D4:D7)</f>
         <v>2.1272727272727273E-2</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="E23" s="37" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="40" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="39">
+      <c r="D24" s="35">
         <f>SUM(D22:D23)</f>
         <v>0.60127272727272707</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="37" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="40" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="44">
+      <c r="D25" s="5">
         <f>D24*10^6</f>
         <v>601272.72727272706</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="37" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="40" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="44">
+      <c r="D26" s="5">
         <f>D25*About!A49</f>
         <v>549760.10443936056</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="37" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5017,258 +4990,258 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="26.26953125" style="8" customWidth="1"/>
-    <col min="3" max="6" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="32" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="32" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8">
+      <c r="B1">
         <v>2020</v>
       </c>
-      <c r="C1" s="8">
+      <c r="C1">
         <v>2021</v>
       </c>
-      <c r="D1" s="8">
+      <c r="D1">
         <v>2022</v>
       </c>
-      <c r="E1" s="8">
+      <c r="E1">
         <v>2023</v>
       </c>
-      <c r="F1" s="8">
+      <c r="F1">
         <v>2024</v>
       </c>
-      <c r="G1" s="8">
+      <c r="G1">
         <v>2025</v>
       </c>
-      <c r="H1" s="8">
+      <c r="H1">
         <v>2026</v>
       </c>
-      <c r="I1" s="8">
+      <c r="I1">
         <v>2027</v>
       </c>
-      <c r="J1" s="8">
+      <c r="J1">
         <v>2028</v>
       </c>
-      <c r="K1" s="8">
+      <c r="K1">
         <v>2029</v>
       </c>
-      <c r="L1" s="8">
+      <c r="L1">
         <v>2030</v>
       </c>
-      <c r="M1" s="8">
+      <c r="M1">
         <v>2031</v>
       </c>
-      <c r="N1" s="8">
+      <c r="N1">
         <v>2032</v>
       </c>
-      <c r="O1" s="8">
+      <c r="O1">
         <v>2033</v>
       </c>
-      <c r="P1" s="8">
+      <c r="P1">
         <v>2034</v>
       </c>
-      <c r="Q1" s="8">
+      <c r="Q1">
         <v>2035</v>
       </c>
-      <c r="R1" s="8">
+      <c r="R1">
         <v>2036</v>
       </c>
-      <c r="S1" s="8">
+      <c r="S1">
         <v>2037</v>
       </c>
-      <c r="T1" s="8">
+      <c r="T1">
         <v>2038</v>
       </c>
-      <c r="U1" s="8">
+      <c r="U1">
         <v>2039</v>
       </c>
-      <c r="V1" s="8">
+      <c r="V1">
         <v>2040</v>
       </c>
-      <c r="W1" s="8">
+      <c r="W1">
         <v>2041</v>
       </c>
-      <c r="X1" s="8">
+      <c r="X1">
         <v>2042</v>
       </c>
-      <c r="Y1" s="8">
+      <c r="Y1">
         <v>2043</v>
       </c>
-      <c r="Z1" s="8">
+      <c r="Z1">
         <v>2044</v>
       </c>
-      <c r="AA1" s="8">
+      <c r="AA1">
         <v>2045</v>
       </c>
-      <c r="AB1" s="8">
+      <c r="AB1">
         <v>2046</v>
       </c>
-      <c r="AC1" s="8">
+      <c r="AC1">
         <v>2047</v>
       </c>
-      <c r="AD1" s="8">
+      <c r="AD1">
         <v>2048</v>
       </c>
-      <c r="AE1" s="8">
+      <c r="AE1">
         <v>2049</v>
       </c>
-      <c r="AF1" s="8">
+      <c r="AF1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(B1,'NREL ATB'!$2:$2,0))*1000</f>
         <v>1363284.234215365</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(C1,'NREL ATB'!$2:$2,0))*1000</f>
         <v>1281813.0648399449</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(D1,'NREL ATB'!$2:$2,0))*1000</f>
         <v>1200341.8954645249</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(E1,'NREL ATB'!$2:$2,0))*1000</f>
         <v>1118870.7260891048</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(F1,'NREL ATB'!$2:$2,0))*1000</f>
         <v>1037399.5567136847</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(G1,'NREL ATB'!$2:$2,0))*1000</f>
         <v>955928.38733826403</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(H1,'NREL ATB'!$2:$2,0))*1000</f>
         <v>921561.47421096952</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(I1,'NREL ATB'!$2:$2,0))*1000</f>
         <v>887194.56108367513</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(J1,'NREL ATB'!$2:$2,0))*1000</f>
         <v>852827.64795638062</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(K1,'NREL ATB'!$2:$2,0))*1000</f>
         <v>818460.734829086</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(L1,'NREL ATB'!$2:$2,0))*1000</f>
         <v>784093.82170179195</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(M1,'NREL ATB'!$2:$2,0))*1000</f>
         <v>774292.64893051935</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(N1,'NREL ATB'!$2:$2,0))*1000</f>
         <v>764491.47615924687</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(O1,'NREL ATB'!$2:$2,0))*1000</f>
         <v>754690.30338797462</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(P1,'NREL ATB'!$2:$2,0))*1000</f>
         <v>744889.13061670202</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(Q1,'NREL ATB'!$2:$2,0))*1000</f>
         <v>735087.95784542954</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(R1,'NREL ATB'!$2:$2,0))*1000</f>
         <v>725286.78507415717</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(S1,'NREL ATB'!$2:$2,0))*1000</f>
         <v>715485.61230288458</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(T1,'NREL ATB'!$2:$2,0))*1000</f>
         <v>705684.43953161221</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U2" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(U1,'NREL ATB'!$2:$2,0))*1000</f>
         <v>695883.26676033961</v>
       </c>
-      <c r="V2" s="6">
+      <c r="V2" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(V1,'NREL ATB'!$2:$2,0))*1000</f>
         <v>686082.09398906713</v>
       </c>
-      <c r="W2" s="6">
+      <c r="W2" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(W1,'NREL ATB'!$2:$2,0))*1000</f>
         <v>676280.92121779488</v>
       </c>
-      <c r="X2" s="6">
+      <c r="X2" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(X1,'NREL ATB'!$2:$2,0))*1000</f>
         <v>666479.74844652251</v>
       </c>
-      <c r="Y2" s="6">
+      <c r="Y2" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(Y1,'NREL ATB'!$2:$2,0))*1000</f>
         <v>656678.57567524991</v>
       </c>
-      <c r="Z2" s="6">
+      <c r="Z2" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(Z1,'NREL ATB'!$2:$2,0))*1000</f>
         <v>646877.40290397755</v>
       </c>
-      <c r="AA2" s="6">
+      <c r="AA2" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(AA1,'NREL ATB'!$2:$2,0))*1000</f>
         <v>637076.2301327053</v>
       </c>
-      <c r="AB2" s="6">
+      <c r="AB2" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(AB1,'NREL ATB'!$2:$2,0))*1000</f>
         <v>627275.05736143282</v>
       </c>
-      <c r="AC2" s="6">
+      <c r="AC2" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(AC1,'NREL ATB'!$2:$2,0))*1000</f>
         <v>617473.88459016045</v>
       </c>
-      <c r="AD2" s="6">
+      <c r="AD2" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(AD1,'NREL ATB'!$2:$2,0))*1000</f>
         <v>607672.71181888808</v>
       </c>
-      <c r="AE2" s="6">
+      <c r="AE2" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(AE1,'NREL ATB'!$2:$2,0))*1000</f>
         <v>597871.5390476156</v>
       </c>
-      <c r="AF2" s="6">
+      <c r="AF2" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(AF1,'NREL ATB'!$2:$2,0))*1000</f>
         <v>588070.36627634382</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7">
         <v>2020</v>
       </c>
       <c r="C7">
@@ -5362,20 +5335,20 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="39">
         <v>1363280</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="39">
         <v>1220010</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="39">
         <v>1125280</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="39">
         <v>1055380</v>
       </c>
       <c r="F8">
@@ -5460,137 +5433,137 @@
         <v>662505</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <f>B2-B8</f>
         <v>4.2342153650242835</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <f t="shared" ref="C10:AF10" si="0">C2-C8</f>
         <v>61803.064839944942</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <f t="shared" si="0"/>
         <v>75061.89546452486</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <f t="shared" si="0"/>
         <v>63490.726089104777</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <f t="shared" si="0"/>
         <v>37582.556713684695</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <f t="shared" si="0"/>
         <v>1151.3873382640304</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <f t="shared" si="0"/>
         <v>5815.4742109695217</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <f t="shared" si="0"/>
         <v>5304.5610836751293</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <f t="shared" si="0"/>
         <v>67.647956380620599</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <f t="shared" si="0"/>
         <v>-9298.2651709140046</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <f t="shared" si="0"/>
         <v>-22152.178298208048</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <f t="shared" si="0"/>
         <v>-13269.351069480646</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="5">
         <f t="shared" si="0"/>
         <v>-7018.5238407531288</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="5">
         <f t="shared" si="0"/>
         <v>-3072.6966120253783</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="5">
         <f t="shared" si="0"/>
         <v>-976.86938329797704</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="5">
         <f t="shared" si="0"/>
         <v>-333.04215457045939</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="5">
         <f t="shared" si="0"/>
         <v>-966.21492584282532</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="5">
         <f t="shared" si="0"/>
         <v>-2707.3876971154241</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="5">
         <f t="shared" si="0"/>
         <v>-5348.56046838779</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="5">
         <f t="shared" si="0"/>
         <v>-8711.7332396603888</v>
       </c>
-      <c r="V10" s="6">
+      <c r="V10" s="5">
         <f t="shared" si="0"/>
         <v>-12672.906010932871</v>
       </c>
-      <c r="W10" s="6">
+      <c r="W10" s="5">
         <f t="shared" si="0"/>
         <v>-17237.078782205121</v>
       </c>
-      <c r="X10" s="6">
+      <c r="X10" s="5">
         <f t="shared" si="0"/>
         <v>-22299.251553477487</v>
       </c>
-      <c r="Y10" s="6">
+      <c r="Y10" s="5">
         <f t="shared" si="0"/>
         <v>-27796.424324750085</v>
       </c>
-      <c r="Z10" s="6">
+      <c r="Z10" s="5">
         <f t="shared" si="0"/>
         <v>-33664.597096022451</v>
       </c>
-      <c r="AA10" s="6">
+      <c r="AA10" s="5">
         <f t="shared" si="0"/>
         <v>-39853.769867294701</v>
       </c>
-      <c r="AB10" s="6">
+      <c r="AB10" s="5">
         <f t="shared" si="0"/>
         <v>-46331.942638567183</v>
       </c>
-      <c r="AC10" s="6">
+      <c r="AC10" s="5">
         <f t="shared" si="0"/>
         <v>-53057.115409839549</v>
       </c>
-      <c r="AD10" s="6">
+      <c r="AD10" s="5">
         <f t="shared" si="0"/>
         <v>-59997.288181111915</v>
       </c>
-      <c r="AE10" s="6">
+      <c r="AE10" s="5">
         <f t="shared" si="0"/>
         <v>-67131.460952384397</v>
       </c>
-      <c r="AF10" s="6">
+      <c r="AF10" s="5">
         <f t="shared" si="0"/>
         <v>-74434.633723656181</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5607,310 +5580,310 @@
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
-      <c r="B2" s="6" t="e">
-        <f>INDEX('NREL ATB'!$7:$7,MATCH(BCpUC!A2,'NREL ATB'!$2:$2,0))*1000-INDEX(BBoSCpUC!$2:$2,MATCH(A2,BBoSCpUC!$1:$1,0))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
+      <c r="B2" s="5">
+        <f>B3</f>
+        <v>813519.89556063944</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2020</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(BCpUC!A3,'NREL ATB'!$2:$2,0))*1000-INDEX(BBoSCpUC!$2:$2,MATCH(A3,BBoSCpUC!$1:$1,0))</f>
         <v>813519.89556063944</v>
       </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2021</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(BCpUC!A4,'NREL ATB'!$2:$2,0))*1000-INDEX(BBoSCpUC!$2:$2,MATCH(A4,BBoSCpUC!$1:$1,0))</f>
         <v>670249.89556063944</v>
       </c>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>2022</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(BCpUC!A5,'NREL ATB'!$2:$2,0))*1000-INDEX(BBoSCpUC!$2:$2,MATCH(A5,BBoSCpUC!$1:$1,0))</f>
         <v>575519.89556063944</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>2023</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(BCpUC!A6,'NREL ATB'!$2:$2,0))*1000-INDEX(BBoSCpUC!$2:$2,MATCH(A6,BBoSCpUC!$1:$1,0))</f>
         <v>505619.89556063944</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>2024</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(BCpUC!A7,'NREL ATB'!$2:$2,0))*1000-INDEX(BBoSCpUC!$2:$2,MATCH(A7,BBoSCpUC!$1:$1,0))</f>
         <v>450056.89556063944</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>2025</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(BCpUC!A8,'NREL ATB'!$2:$2,0))*1000-INDEX(BBoSCpUC!$2:$2,MATCH(A8,BBoSCpUC!$1:$1,0))</f>
         <v>405016.89556063944</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>2026</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(BCpUC!A9,'NREL ATB'!$2:$2,0))*1000-INDEX(BBoSCpUC!$2:$2,MATCH(A9,BBoSCpUC!$1:$1,0))</f>
         <v>365985.89556063944</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>2027</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(BCpUC!A10,'NREL ATB'!$2:$2,0))*1000-INDEX(BBoSCpUC!$2:$2,MATCH(A10,BBoSCpUC!$1:$1,0))</f>
         <v>332129.89556063944</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>2028</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(BCpUC!A11,'NREL ATB'!$2:$2,0))*1000-INDEX(BBoSCpUC!$2:$2,MATCH(A11,BBoSCpUC!$1:$1,0))</f>
         <v>302999.89556063944</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>2029</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(BCpUC!A12,'NREL ATB'!$2:$2,0))*1000-INDEX(BBoSCpUC!$2:$2,MATCH(A12,BBoSCpUC!$1:$1,0))</f>
         <v>277998.89556063944</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>2030</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(BCpUC!A13,'NREL ATB'!$2:$2,0))*1000-INDEX(BBoSCpUC!$2:$2,MATCH(A13,BBoSCpUC!$1:$1,0))</f>
         <v>256485.89556063944</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>2031</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(BCpUC!A14,'NREL ATB'!$2:$2,0))*1000-INDEX(BBoSCpUC!$2:$2,MATCH(A14,BBoSCpUC!$1:$1,0))</f>
         <v>237801.89556063944</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>2032</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(BCpUC!A15,'NREL ATB'!$2:$2,0))*1000-INDEX(BBoSCpUC!$2:$2,MATCH(A15,BBoSCpUC!$1:$1,0))</f>
         <v>221749.89556063944</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>2033</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(BCpUC!A16,'NREL ATB'!$2:$2,0))*1000-INDEX(BBoSCpUC!$2:$2,MATCH(A16,BBoSCpUC!$1:$1,0))</f>
         <v>208002.89556063944</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="8">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>2034</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(BCpUC!A17,'NREL ATB'!$2:$2,0))*1000-INDEX(BBoSCpUC!$2:$2,MATCH(A17,BBoSCpUC!$1:$1,0))</f>
         <v>196105.89556063944</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="8">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>2035</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(BCpUC!A18,'NREL ATB'!$2:$2,0))*1000-INDEX(BBoSCpUC!$2:$2,MATCH(A18,BBoSCpUC!$1:$1,0))</f>
         <v>185660.89556063944</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="8">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>2036</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(BCpUC!A19,'NREL ATB'!$2:$2,0))*1000-INDEX(BBoSCpUC!$2:$2,MATCH(A19,BBoSCpUC!$1:$1,0))</f>
         <v>176492.89556063944</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="8">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>2037</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(BCpUC!A20,'NREL ATB'!$2:$2,0))*1000-INDEX(BBoSCpUC!$2:$2,MATCH(A20,BBoSCpUC!$1:$1,0))</f>
         <v>168432.89556063944</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="8">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>2038</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(BCpUC!A21,'NREL ATB'!$2:$2,0))*1000-INDEX(BBoSCpUC!$2:$2,MATCH(A21,BBoSCpUC!$1:$1,0))</f>
         <v>161272.89556063944</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="8">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>2039</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(BCpUC!A22,'NREL ATB'!$2:$2,0))*1000-INDEX(BBoSCpUC!$2:$2,MATCH(A22,BBoSCpUC!$1:$1,0))</f>
         <v>154834.89556063944</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="8">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>2040</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(BCpUC!A23,'NREL ATB'!$2:$2,0))*1000-INDEX(BBoSCpUC!$2:$2,MATCH(A23,BBoSCpUC!$1:$1,0))</f>
         <v>148994.89556063944</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="8">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>2041</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(BCpUC!A24,'NREL ATB'!$2:$2,0))*1000-INDEX(BBoSCpUC!$2:$2,MATCH(A24,BBoSCpUC!$1:$1,0))</f>
         <v>143757.89556063944</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="8">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>2042</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(BCpUC!A25,'NREL ATB'!$2:$2,0))*1000-INDEX(BBoSCpUC!$2:$2,MATCH(A25,BBoSCpUC!$1:$1,0))</f>
         <v>139018.89556063944</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="8">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>2043</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(BCpUC!A26,'NREL ATB'!$2:$2,0))*1000-INDEX(BBoSCpUC!$2:$2,MATCH(A26,BBoSCpUC!$1:$1,0))</f>
         <v>134714.89556063944</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="8">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>2044</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(BCpUC!A27,'NREL ATB'!$2:$2,0))*1000-INDEX(BBoSCpUC!$2:$2,MATCH(A27,BBoSCpUC!$1:$1,0))</f>
         <v>130781.89556063944</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="8">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>2045</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(BCpUC!A28,'NREL ATB'!$2:$2,0))*1000-INDEX(BBoSCpUC!$2:$2,MATCH(A28,BBoSCpUC!$1:$1,0))</f>
         <v>127169.89556063944</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="8">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>2046</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(BCpUC!A29,'NREL ATB'!$2:$2,0))*1000-INDEX(BBoSCpUC!$2:$2,MATCH(A29,BBoSCpUC!$1:$1,0))</f>
         <v>123846.89556063944</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="8">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>2047</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(BCpUC!A30,'NREL ATB'!$2:$2,0))*1000-INDEX(BBoSCpUC!$2:$2,MATCH(A30,BBoSCpUC!$1:$1,0))</f>
         <v>120770.89556063944</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="8">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>2048</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(BCpUC!A31,'NREL ATB'!$2:$2,0))*1000-INDEX(BBoSCpUC!$2:$2,MATCH(A31,BBoSCpUC!$1:$1,0))</f>
         <v>117909.89556063944</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="8">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>2049</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(BCpUC!A32,'NREL ATB'!$2:$2,0))*1000-INDEX(BBoSCpUC!$2:$2,MATCH(A32,BBoSCpUC!$1:$1,0))</f>
         <v>115242.89556063944</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="8">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>2050</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <f>INDEX('NREL ATB'!$7:$7,MATCH(BCpUC!A33,'NREL ATB'!$2:$2,0))*1000-INDEX(BBoSCpUC!$2:$2,MATCH(A33,BBoSCpUC!$1:$1,0))</f>
         <v>112744.89556063944</v>
       </c>
@@ -5931,234 +5904,234 @@
       <selection activeCell="B2" sqref="B2:AF2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8">
+      <c r="B1">
         <v>2020</v>
       </c>
-      <c r="C1" s="8">
+      <c r="C1">
         <v>2021</v>
       </c>
-      <c r="D1" s="8">
+      <c r="D1">
         <v>2022</v>
       </c>
-      <c r="E1" s="8">
+      <c r="E1">
         <v>2023</v>
       </c>
-      <c r="F1" s="8">
+      <c r="F1">
         <v>2024</v>
       </c>
-      <c r="G1" s="8">
+      <c r="G1">
         <v>2025</v>
       </c>
-      <c r="H1" s="8">
+      <c r="H1">
         <v>2026</v>
       </c>
-      <c r="I1" s="8">
+      <c r="I1">
         <v>2027</v>
       </c>
-      <c r="J1" s="8">
+      <c r="J1">
         <v>2028</v>
       </c>
-      <c r="K1" s="8">
+      <c r="K1">
         <v>2029</v>
       </c>
-      <c r="L1" s="8">
+      <c r="L1">
         <v>2030</v>
       </c>
-      <c r="M1" s="8">
+      <c r="M1">
         <v>2031</v>
       </c>
-      <c r="N1" s="8">
+      <c r="N1">
         <v>2032</v>
       </c>
-      <c r="O1" s="8">
+      <c r="O1">
         <v>2033</v>
       </c>
-      <c r="P1" s="8">
+      <c r="P1">
         <v>2034</v>
       </c>
-      <c r="Q1" s="8">
+      <c r="Q1">
         <v>2035</v>
       </c>
-      <c r="R1" s="8">
+      <c r="R1">
         <v>2036</v>
       </c>
-      <c r="S1" s="8">
+      <c r="S1">
         <v>2037</v>
       </c>
-      <c r="T1" s="8">
+      <c r="T1">
         <v>2038</v>
       </c>
-      <c r="U1" s="8">
+      <c r="U1">
         <v>2039</v>
       </c>
-      <c r="V1" s="8">
+      <c r="V1">
         <v>2040</v>
       </c>
-      <c r="W1" s="8">
+      <c r="W1">
         <v>2041</v>
       </c>
-      <c r="X1" s="8">
+      <c r="X1">
         <v>2042</v>
       </c>
-      <c r="Y1" s="8">
+      <c r="Y1">
         <v>2043</v>
       </c>
-      <c r="Z1" s="8">
+      <c r="Z1">
         <v>2044</v>
       </c>
-      <c r="AA1" s="8">
+      <c r="AA1">
         <v>2045</v>
       </c>
-      <c r="AB1" s="8">
+      <c r="AB1">
         <v>2046</v>
       </c>
-      <c r="AC1" s="8">
+      <c r="AC1">
         <v>2047</v>
       </c>
-      <c r="AD1" s="8">
+      <c r="AD1">
         <v>2048</v>
       </c>
-      <c r="AE1" s="8">
+      <c r="AE1">
         <v>2049</v>
       </c>
-      <c r="AF1" s="8">
+      <c r="AF1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <f>'Balance of System Calculations'!$D$26+'Calibration Check'!B10</f>
         <v>549764.33865472558</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <f>'Balance of System Calculations'!$D$26+'Calibration Check'!C10</f>
         <v>611563.1692793055</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <f>'Balance of System Calculations'!$D$26+'Calibration Check'!D10</f>
         <v>624821.99990388541</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <f>'Balance of System Calculations'!$D$26+'Calibration Check'!E10</f>
         <v>613250.83052846533</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <f>'Balance of System Calculations'!$D$26+'Calibration Check'!F10</f>
         <v>587342.66115304525</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <f>'Balance of System Calculations'!$D$26+'Calibration Check'!G10</f>
         <v>550911.49177762459</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <f>'Balance of System Calculations'!$D$26+'Calibration Check'!H10</f>
         <v>555575.57865033008</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <f>'Balance of System Calculations'!$D$26+'Calibration Check'!I10</f>
         <v>555064.66552303568</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <f>'Balance of System Calculations'!$D$26+'Calibration Check'!J10</f>
         <v>549827.75239574118</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <f>'Balance of System Calculations'!$D$26+'Calibration Check'!K10</f>
         <v>540461.83926844655</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="5">
         <f>'Balance of System Calculations'!$D$26+'Calibration Check'!L10</f>
         <v>527607.92614115251</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="5">
         <f>'Balance of System Calculations'!$D$26+'Calibration Check'!M10</f>
         <v>536490.75336987991</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="5">
         <f>'Balance of System Calculations'!$D$26+'Calibration Check'!N10</f>
         <v>542741.58059860743</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="5">
         <f>'Balance of System Calculations'!$D$26+'Calibration Check'!O10</f>
         <v>546687.40782733518</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="5">
         <f>'Balance of System Calculations'!$D$26+'Calibration Check'!P10</f>
         <v>548783.23505606258</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="5">
         <f>'Balance of System Calculations'!$D$26+'Calibration Check'!Q10</f>
         <v>549427.0622847901</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="5">
         <f>'Balance of System Calculations'!$D$26+'Calibration Check'!R10</f>
         <v>548793.88951351773</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="5">
         <f>'Balance of System Calculations'!$D$26+'Calibration Check'!S10</f>
         <v>547052.71674224513</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2" s="5">
         <f>'Balance of System Calculations'!$D$26+'Calibration Check'!T10</f>
         <v>544411.54397097277</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U2" s="5">
         <f>'Balance of System Calculations'!$D$26+'Calibration Check'!U10</f>
         <v>541048.37119970017</v>
       </c>
-      <c r="V2" s="6">
+      <c r="V2" s="5">
         <f>'Balance of System Calculations'!$D$26+'Calibration Check'!V10</f>
         <v>537087.19842842768</v>
       </c>
-      <c r="W2" s="6">
+      <c r="W2" s="5">
         <f>'Balance of System Calculations'!$D$26+'Calibration Check'!W10</f>
         <v>532523.02565715543</v>
       </c>
-      <c r="X2" s="6">
+      <c r="X2" s="5">
         <f>'Balance of System Calculations'!$D$26+'Calibration Check'!X10</f>
         <v>527460.85288588307</v>
       </c>
-      <c r="Y2" s="6">
+      <c r="Y2" s="5">
         <f>'Balance of System Calculations'!$D$26+'Calibration Check'!Y10</f>
         <v>521963.68011461047</v>
       </c>
-      <c r="Z2" s="6">
+      <c r="Z2" s="5">
         <f>'Balance of System Calculations'!$D$26+'Calibration Check'!Z10</f>
         <v>516095.5073433381</v>
       </c>
-      <c r="AA2" s="6">
+      <c r="AA2" s="5">
         <f>'Balance of System Calculations'!$D$26+'Calibration Check'!AA10</f>
         <v>509906.33457206585</v>
       </c>
-      <c r="AB2" s="6">
+      <c r="AB2" s="5">
         <f>'Balance of System Calculations'!$D$26+'Calibration Check'!AB10</f>
         <v>503428.16180079337</v>
       </c>
-      <c r="AC2" s="6">
+      <c r="AC2" s="5">
         <f>'Balance of System Calculations'!$D$26+'Calibration Check'!AC10</f>
         <v>496702.98902952101</v>
       </c>
-      <c r="AD2" s="6">
+      <c r="AD2" s="5">
         <f>'Balance of System Calculations'!$D$26+'Calibration Check'!AD10</f>
         <v>489762.81625824864</v>
       </c>
-      <c r="AE2" s="6">
+      <c r="AE2" s="5">
         <f>'Balance of System Calculations'!$D$26+'Calibration Check'!AE10</f>
         <v>482628.64348697616</v>
       </c>
-      <c r="AF2" s="6">
+      <c r="AF2" s="5">
         <f>'Balance of System Calculations'!$D$26+'Calibration Check'!AF10</f>
         <v>475325.47071570437</v>
       </c>
